--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -661,7 +661,7 @@
     <t>[{'id': 853, 'year': 2017, 'country': 'Uruguay'}, {'id': 854, 'year': 2016, 'country': 'Uruguay'}, {'id': 855, 'year': 20152016, 'country': 'Uruguay'}, {'id': 856, 'year': 20142015, 'country': 'Uruguay'}, {'id': 857, 'year': 20132014, 'country': 'Uruguay'}, {'id': 1095, 'year': 2018, 'country': 'Uruguay'}, {'id': 1905, 'year': 2019, 'country': 'Uruguay'}, {'id': 3789, 'year': 2020, 'country': 'Uruguay'}, {'id': 5809, 'year': 2021, 'country': 'Uruguay'}, {'id': 7067, 'year': 2022, 'country': 'Uruguay'}, {'id': 8937, 'year': 2023, 'country': 'Uruguay'}]</t>
   </si>
   <si>
-    <t>[{'id': 858, 'year': 2017, 'country': 'Uruguay'}, {'id': 859, 'year': 2016, 'country': 'Uruguay'}, {'id': 860, 'year': 20152016, 'country': 'Uruguay'}, {'id': 861, 'year': 20142015, 'country': 'Uruguay'}, {'id': 862, 'year': 20132014, 'country': 'Uruguay'}, {'id': 1096, 'year': 2018, 'country': 'Uruguay'}, {'id': 1949, 'year': 2019, 'country': 'Uruguay'}, {'id': 4651, 'year': 2020, 'country': 'Uruguay'}, {'id': 5908, 'year': 2021, 'country': 'Uruguay'}, {'id': 7173, 'year': 2022, 'country': 'Uruguay'}, {'id': 9034, 'year': 2023, 'country': 'Uruguay'}]</t>
+    <t>[{'id': 858, 'year': 2017, 'country': 'Uruguay'}, {'id': 859, 'year': 2016, 'country': 'Uruguay'}, {'id': 860, 'year': 20152016, 'country': 'Uruguay'}, {'id': 861, 'year': 20142015, 'country': 'Uruguay'}, {'id': 862, 'year': 20132014, 'country': 'Uruguay'}, {'id': 1096, 'year': 2018, 'country': 'Uruguay'}, {'id': 1949, 'year': 2019, 'country': 'Uruguay'}, {'id': 4651, 'year': 2020, 'country': 'Uruguay'}, {'id': 5908, 'year': 2021, 'country': 'Uruguay'}, {'id': 7173, 'year': 2022, 'country': 'Uruguay'}, {'id': 9288, 'year': 2023, 'country': 'Uruguay'}]</t>
   </si>
   <si>
     <t>[{'id': 622, 'year': 2017, 'country': 'Venezuela'}, {'id': 623, 'year': 2016, 'country': 'Venezuela'}, {'id': 624, 'year': 2015, 'country': 'Venezuela'}, {'id': 631, 'year': 20142015, 'country': 'Venezuela'}, {'id': 1102, 'year': 2018, 'country': 'Venezuela'}, {'id': 1868, 'year': 2019, 'country': 'Venezuela'}, {'id': 2011, 'year': 20132014, 'country': 'Venezuela'}, {'id': 3714, 'year': 2020, 'country': 'Venezuela'}, {'id': 5631, 'year': 2021, 'country': 'Venezuela'}, {'id': 7166, 'year': 2022, 'country': 'Venezuela'}, {'id': 8952, 'year': 2023, 'country': 'Venezuela'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -577,7 +577,7 @@
     <t>[{'id': 313, 'year': 20172018, 'country': 'Mexico'}, {'id': 314, 'year': 20162017, 'country': 'Mexico'}, {'id': 315, 'year': 20152016, 'country': 'Mexico'}, {'id': 316, 'year': 20142015, 'country': 'Mexico'}, {'id': 317, 'year': 20132014, 'country': 'Mexico'}, {'id': 1583, 'year': 20182019, 'country': 'Mexico'}, {'id': 2315, 'year': 20192020, 'country': 'Mexico'}, {'id': 4664, 'year': 20202021, 'country': 'Mexico'}, {'id': 6104, 'year': 20212022, 'country': 'Mexico'}, {'id': 7489, 'year': 20222023, 'country': 'Mexico'}]</t>
   </si>
   <si>
-    <t>[{'id': 307, 'year': 20172018, 'country': 'Mexico'}, {'id': 308, 'year': 20162017, 'country': 'Mexico'}, {'id': 309, 'year': 20152016, 'country': 'Mexico'}, {'id': 310, 'year': 20142015, 'country': 'Mexico'}, {'id': 311, 'year': 20132014, 'country': 'Mexico'}, {'id': 312, 'year': 20122013, 'country': 'Mexico'}, {'id': 1582, 'year': 20182019, 'country': 'Mexico'}, {'id': 2270, 'year': 20192020, 'country': 'Mexico'}, {'id': 4507, 'year': 20202021, 'country': 'Mexico'}, {'id': 6038, 'year': 20212022, 'country': 'Mexico'}, {'id': 7425, 'year': 20222023, 'country': 'Mexico'}]</t>
+    <t>[{'id': 307, 'year': 20172018, 'country': 'Mexico'}, {'id': 308, 'year': 20162017, 'country': 'Mexico'}, {'id': 309, 'year': 20152016, 'country': 'Mexico'}, {'id': 310, 'year': 20142015, 'country': 'Mexico'}, {'id': 311, 'year': 20132014, 'country': 'Mexico'}, {'id': 312, 'year': 20122013, 'country': 'Mexico'}, {'id': 1582, 'year': 20182019, 'country': 'Mexico'}, {'id': 2270, 'year': 20192020, 'country': 'Mexico'}, {'id': 4507, 'year': 20202021, 'country': 'Mexico'}, {'id': 6038, 'year': 20212022, 'country': 'Mexico'}, {'id': 7425, 'year': 20222023, 'country': 'Mexico'}, {'id': 9525, 'year': 20232024, 'country': 'Mexico'}]</t>
   </si>
   <si>
     <t>[{'id': 55, 'year': 20162017, 'country': 'Netherlands'}, {'id': 56, 'year': 20152016, 'country': 'Netherlands'}, {'id': 57, 'year': 20142015, 'country': 'Netherlands'}, {'id': 179, 'year': 20172018, 'country': 'Netherlands'}, {'id': 1584, 'year': 20182019, 'country': 'Netherlands'}, {'id': 2273, 'year': 20192020, 'country': 'Netherlands'}, {'id': 4228, 'year': 20132014, 'country': 'Netherlands'}, {'id': 4236, 'year': 20122013, 'country': 'Netherlands'}, {'id': 4243, 'year': 20112012, 'country': 'Netherlands'}, {'id': 4246, 'year': 20102011, 'country': 'Netherlands'}, {'id': 4247, 'year': 20092010, 'country': 'Netherlands'}, {'id': 4748, 'year': 20202021, 'country': 'Netherlands'}, {'id': 5950, 'year': 20212022, 'country': 'Netherlands'}, {'id': 7484, 'year': 20222023, 'country': 'Netherlands'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -508,7 +508,7 @@
     <t>[{'id': 484, 'year': 2017, 'country': 'Colombia'}, {'id': 485, 'year': 2016, 'country': 'Colombia'}, {'id': 486, 'year': 2015, 'country': 'Colombia'}, {'id': 487, 'year': 2014, 'country': 'Colombia'}, {'id': 488, 'year': 2013, 'country': 'Colombia'}, {'id': 1070, 'year': 2018, 'country': 'Colombia'}, {'id': 1829, 'year': 2019, 'country': 'Colombia'}, {'id': 3640, 'year': 2020, 'country': 'Colombia'}, {'id': 5431, 'year': 2021, 'country': 'Colombia'}, {'id': 6908, 'year': 2022, 'country': 'Colombia'}, {'id': 8897, 'year': 2023, 'country': 'Colombia'}]</t>
   </si>
   <si>
-    <t>[{'id': 397, 'year': 20172018, 'country': 'Croatia'}, {'id': 401, 'year': 20162017, 'country': 'Croatia'}, {'id': 402, 'year': 20152016, 'country': 'Croatia'}, {'id': 403, 'year': 20142015, 'country': 'Croatia'}, {'id': 404, 'year': 20132014, 'country': 'Croatia'}, {'id': 1557, 'year': 20182019, 'country': 'Croatia'}, {'id': 2278, 'year': 20192020, 'country': 'Croatia'}, {'id': 4660, 'year': 20202021, 'country': 'Croatia'}, {'id': 5956, 'year': 20212022, 'country': 'Croatia'}, {'id': 7457, 'year': 20222023, 'country': 'Croatia'}]</t>
+    <t>[{'id': 397, 'year': 20172018, 'country': 'Croatia'}, {'id': 401, 'year': 20162017, 'country': 'Croatia'}, {'id': 402, 'year': 20152016, 'country': 'Croatia'}, {'id': 403, 'year': 20142015, 'country': 'Croatia'}, {'id': 404, 'year': 20132014, 'country': 'Croatia'}, {'id': 1557, 'year': 20182019, 'country': 'Croatia'}, {'id': 2278, 'year': 20192020, 'country': 'Croatia'}, {'id': 4660, 'year': 20202021, 'country': 'Croatia'}, {'id': 5956, 'year': 20212022, 'country': 'Croatia'}, {'id': 7457, 'year': 20222023, 'country': 'Croatia'}, {'id': 9542, 'year': 20232024, 'country': 'Croatia'}]</t>
   </si>
   <si>
     <t>[{'id': 537, 'year': 20172018, 'country': 'Czech Republic'}, {'id': 538, 'year': 20162017, 'country': 'Czech Republic'}, {'id': 539, 'year': 20152016, 'country': 'Czech Republic'}, {'id': 540, 'year': 20142015, 'country': 'Czech Republic'}, {'id': 541, 'year': 20132014, 'country': 'Czech Republic'}, {'id': 1545, 'year': 20182019, 'country': 'Czech Republic'}, {'id': 2268, 'year': 20192020, 'country': 'Czech Republic'}, {'id': 4308, 'year': 20122013, 'country': 'Czech Republic'}, {'id': 4314, 'year': 20112012, 'country': 'Czech Republic'}, {'id': 4328, 'year': 20102011, 'country': 'Czech Republic'}, {'id': 4335, 'year': 20092010, 'country': 'Czech Republic'}, {'id': 4801, 'year': 20202021, 'country': 'Czech Republic'}, {'id': 5938, 'year': 20212022, 'country': 'Czech Republic'}, {'id': 7586, 'year': 20222023, 'country': 'Czech Republic'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -517,7 +517,7 @@
     <t>[{'id': 700, 'year': 20172018, 'country': 'Denmark'}, {'id': 701, 'year': 20162017, 'country': 'Denmark'}, {'id': 702, 'year': 20152016, 'country': 'Denmark'}, {'id': 703, 'year': 20142015, 'country': 'Denmark'}, {'id': 704, 'year': 20132014, 'country': 'Denmark'}, {'id': 1539, 'year': 20182019, 'country': 'Denmark'}, {'id': 4389, 'year': 20192020, 'country': 'Denmark'}, {'id': 4641, 'year': 20202021, 'country': 'Denmark'}, {'id': 5959, 'year': 20212022, 'country': 'Denmark'}, {'id': 7450, 'year': 20222023, 'country': 'Denmark'}]</t>
   </si>
   <si>
-    <t>[{'id': 561, 'year': 20172018, 'country': 'Denmark'}, {'id': 562, 'year': 20162017, 'country': 'Denmark'}, {'id': 563, 'year': 20152016, 'country': 'Denmark'}, {'id': 564, 'year': 20142015, 'country': 'Denmark'}, {'id': 565, 'year': 20132014, 'country': 'Denmark'}, {'id': 1538, 'year': 20182019, 'country': 'Denmark'}, {'id': 2245, 'year': 20192020, 'country': 'Denmark'}, {'id': 4642, 'year': 20202021, 'country': 'Denmark'}, {'id': 5961, 'year': 20212022, 'country': 'Denmark'}, {'id': 7426, 'year': 20222023, 'country': 'Denmark'}]</t>
+    <t>[{'id': 561, 'year': 20172018, 'country': 'Denmark'}, {'id': 562, 'year': 20162017, 'country': 'Denmark'}, {'id': 563, 'year': 20152016, 'country': 'Denmark'}, {'id': 564, 'year': 20142015, 'country': 'Denmark'}, {'id': 565, 'year': 20132014, 'country': 'Denmark'}, {'id': 1538, 'year': 20182019, 'country': 'Denmark'}, {'id': 2245, 'year': 20192020, 'country': 'Denmark'}, {'id': 4642, 'year': 20202021, 'country': 'Denmark'}, {'id': 5961, 'year': 20212022, 'country': 'Denmark'}, {'id': 7426, 'year': 20222023, 'country': 'Denmark'}, {'id': 9545, 'year': 20232024, 'country': 'Denmark'}]</t>
   </si>
   <si>
     <t>[{'id': 843, 'year': 2017, 'country': 'Ecuador'}, {'id': 844, 'year': 2016, 'country': 'Ecuador'}, {'id': 845, 'year': 2015, 'country': 'Ecuador'}, {'id': 846, 'year': 2014, 'country': 'Ecuador'}, {'id': 847, 'year': 2013, 'country': 'Ecuador'}, {'id': 1093, 'year': 2018, 'country': 'Ecuador'}, {'id': 1872, 'year': 2019, 'country': 'Ecuador'}, {'id': 3553, 'year': 2020, 'country': 'Ecuador'}, {'id': 5580, 'year': 2021, 'country': 'Ecuador'}, {'id': 7038, 'year': 2022, 'country': 'Ecuador'}, {'id': 8934, 'year': 2023, 'country': 'Ecuador'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -484,7 +484,7 @@
     <t>[{'id': 588, 'year': 2017, 'country': 'Brazil'}, {'id': 589, 'year': 2016, 'country': 'Brazil'}, {'id': 590, 'year': 2015, 'country': 'Brazil'}, {'id': 591, 'year': 2014, 'country': 'Brazil'}, {'id': 1200, 'year': 2018, 'country': 'Brazil'}, {'id': 1939, 'year': 2019, 'country': 'Brazil'}, {'id': 4854, 'year': 2020, 'country': 'Brazil'}, {'id': 5832, 'year': 2021, 'country': 'Brazil'}, {'id': 7093, 'year': 2022, 'country': 'Brazil'}, {'id': 9086, 'year': 2023, 'country': 'Brazil'}]</t>
   </si>
   <si>
-    <t>[{'id': 690, 'year': 20172018, 'country': 'Bulgaria'}, {'id': 691, 'year': 20162017, 'country': 'Bulgaria'}, {'id': 692, 'year': 20152016, 'country': 'Bulgaria'}, {'id': 694, 'year': 20142015, 'country': 'Bulgaria'}, {'id': 695, 'year': 20132014, 'country': 'Bulgaria'}, {'id': 1547, 'year': 20182019, 'country': 'Bulgaria'}, {'id': 2285, 'year': 20192020, 'country': 'Bulgaria'}, {'id': 4574, 'year': 20202021, 'country': 'Bulgaria'}, {'id': 6012, 'year': 20212022, 'country': 'Bulgaria'}, {'id': 7483, 'year': 20222023, 'country': 'Bulgaria'}]</t>
+    <t>[{'id': 690, 'year': 20172018, 'country': 'Bulgaria'}, {'id': 691, 'year': 20162017, 'country': 'Bulgaria'}, {'id': 692, 'year': 20152016, 'country': 'Bulgaria'}, {'id': 694, 'year': 20142015, 'country': 'Bulgaria'}, {'id': 695, 'year': 20132014, 'country': 'Bulgaria'}, {'id': 1547, 'year': 20182019, 'country': 'Bulgaria'}, {'id': 2285, 'year': 20192020, 'country': 'Bulgaria'}, {'id': 4574, 'year': 20202021, 'country': 'Bulgaria'}, {'id': 6012, 'year': 20212022, 'country': 'Bulgaria'}, {'id': 7483, 'year': 20222023, 'country': 'Bulgaria'}, {'id': 9551, 'year': 20232024, 'country': 'Bulgaria'}]</t>
   </si>
   <si>
     <t>[{'id': 2047, 'year': 2019, 'country': 'Canada'}, {'id': 3801, 'year': 2020, 'country': 'Canada'}, {'id': 6003, 'year': 2021, 'country': 'Canada'}, {'id': 7112, 'year': 2022, 'country': 'Canada'}, {'id': 8946, 'year': 2023, 'country': 'Canada'}]</t>
@@ -598,7 +598,7 @@
     <t>[{'id': 612, 'year': 2017, 'country': 'Peru'}, {'id': 613, 'year': 2016, 'country': 'Peru'}, {'id': 614, 'year': 2015, 'country': 'Peru'}, {'id': 615, 'year': 2014, 'country': 'Peru'}, {'id': 616, 'year': 2013, 'country': 'Peru'}, {'id': 1125, 'year': 2018, 'country': 'Peru'}, {'id': 1881, 'year': 2019, 'country': 'Peru'}, {'id': 3702, 'year': 2020, 'country': 'Peru'}, {'id': 5627, 'year': 2021, 'country': 'Peru'}, {'id': 6966, 'year': 2022, 'country': 'Peru'}, {'id': 8837, 'year': 2023, 'country': 'Peru'}]</t>
   </si>
   <si>
-    <t>[{'id': 255, 'year': 20172018, 'country': 'Poland'}, {'id': 256, 'year': 20152016, 'country': 'Poland'}, {'id': 257, 'year': 20132014, 'country': 'Poland'}, {'id': 278, 'year': 20162017, 'country': 'Poland'}, {'id': 279, 'year': 20142015, 'country': 'Poland'}, {'id': 1589, 'year': 20182019, 'country': 'Poland'}, {'id': 2328, 'year': 20192020, 'country': 'Poland'}, {'id': 3972, 'year': 20092010, 'country': 'Poland'}, {'id': 3973, 'year': 20122013, 'country': 'Poland'}, {'id': 3974, 'year': 20102011, 'country': 'Poland'}, {'id': 3975, 'year': 20112012, 'country': 'Poland'}, {'id': 4760, 'year': 20202021, 'country': 'Poland'}, {'id': 5948, 'year': 20212022, 'country': 'Poland'}, {'id': 7428, 'year': 20222023, 'country': 'Poland'}]</t>
+    <t>[{'id': 255, 'year': 20172018, 'country': 'Poland'}, {'id': 256, 'year': 20152016, 'country': 'Poland'}, {'id': 257, 'year': 20132014, 'country': 'Poland'}, {'id': 278, 'year': 20162017, 'country': 'Poland'}, {'id': 279, 'year': 20142015, 'country': 'Poland'}, {'id': 1589, 'year': 20182019, 'country': 'Poland'}, {'id': 2328, 'year': 20192020, 'country': 'Poland'}, {'id': 3972, 'year': 20092010, 'country': 'Poland'}, {'id': 3973, 'year': 20122013, 'country': 'Poland'}, {'id': 3974, 'year': 20102011, 'country': 'Poland'}, {'id': 3975, 'year': 20112012, 'country': 'Poland'}, {'id': 4760, 'year': 20202021, 'country': 'Poland'}, {'id': 5948, 'year': 20212022, 'country': 'Poland'}, {'id': 7428, 'year': 20222023, 'country': 'Poland'}, {'id': 9553, 'year': 20232024, 'country': 'Poland'}]</t>
   </si>
   <si>
     <t>[{'id': 13, 'year': 20162017, 'country': 'Portugal'}, {'id': 14, 'year': 20152016, 'country': 'Portugal'}, {'id': 17, 'year': 20142015, 'country': 'Portugal'}, {'id': 18, 'year': 20132014, 'country': 'Portugal'}, {'id': 173, 'year': 20172018, 'country': 'Portugal'}, {'id': 1593, 'year': 20182019, 'country': 'Portugal'}, {'id': 2321, 'year': 20192020, 'country': 'Portugal'}, {'id': 4225, 'year': 20122013, 'country': 'Portugal'}, {'id': 4232, 'year': 20112012, 'country': 'Portugal'}, {'id': 4238, 'year': 20102011, 'country': 'Portugal'}, {'id': 4885, 'year': 20202021, 'country': 'Portugal'}, {'id': 6117, 'year': 20212022, 'country': 'Portugal'}, {'id': 7731, 'year': 20222023, 'country': 'Portugal'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -514,7 +514,7 @@
     <t>[{'id': 537, 'year': 20172018, 'country': 'Czech Republic'}, {'id': 538, 'year': 20162017, 'country': 'Czech Republic'}, {'id': 539, 'year': 20152016, 'country': 'Czech Republic'}, {'id': 540, 'year': 20142015, 'country': 'Czech Republic'}, {'id': 541, 'year': 20132014, 'country': 'Czech Republic'}, {'id': 1545, 'year': 20182019, 'country': 'Czech Republic'}, {'id': 2268, 'year': 20192020, 'country': 'Czech Republic'}, {'id': 4308, 'year': 20122013, 'country': 'Czech Republic'}, {'id': 4314, 'year': 20112012, 'country': 'Czech Republic'}, {'id': 4328, 'year': 20102011, 'country': 'Czech Republic'}, {'id': 4335, 'year': 20092010, 'country': 'Czech Republic'}, {'id': 4801, 'year': 20202021, 'country': 'Czech Republic'}, {'id': 5938, 'year': 20212022, 'country': 'Czech Republic'}, {'id': 7586, 'year': 20222023, 'country': 'Czech Republic'}]</t>
   </si>
   <si>
-    <t>[{'id': 700, 'year': 20172018, 'country': 'Denmark'}, {'id': 701, 'year': 20162017, 'country': 'Denmark'}, {'id': 702, 'year': 20152016, 'country': 'Denmark'}, {'id': 703, 'year': 20142015, 'country': 'Denmark'}, {'id': 704, 'year': 20132014, 'country': 'Denmark'}, {'id': 1539, 'year': 20182019, 'country': 'Denmark'}, {'id': 4389, 'year': 20192020, 'country': 'Denmark'}, {'id': 4641, 'year': 20202021, 'country': 'Denmark'}, {'id': 5959, 'year': 20212022, 'country': 'Denmark'}, {'id': 7450, 'year': 20222023, 'country': 'Denmark'}]</t>
+    <t>[{'id': 700, 'year': 20172018, 'country': 'Denmark'}, {'id': 701, 'year': 20162017, 'country': 'Denmark'}, {'id': 702, 'year': 20152016, 'country': 'Denmark'}, {'id': 703, 'year': 20142015, 'country': 'Denmark'}, {'id': 704, 'year': 20132014, 'country': 'Denmark'}, {'id': 1539, 'year': 20182019, 'country': 'Denmark'}, {'id': 4389, 'year': 20192020, 'country': 'Denmark'}, {'id': 4641, 'year': 20202021, 'country': 'Denmark'}, {'id': 5959, 'year': 20212022, 'country': 'Denmark'}, {'id': 7450, 'year': 20222023, 'country': 'Denmark'}, {'id': 9567, 'year': 20232024, 'country': 'Denmark'}]</t>
   </si>
   <si>
     <t>[{'id': 561, 'year': 20172018, 'country': 'Denmark'}, {'id': 562, 'year': 20162017, 'country': 'Denmark'}, {'id': 563, 'year': 20152016, 'country': 'Denmark'}, {'id': 564, 'year': 20142015, 'country': 'Denmark'}, {'id': 565, 'year': 20132014, 'country': 'Denmark'}, {'id': 1538, 'year': 20182019, 'country': 'Denmark'}, {'id': 2245, 'year': 20192020, 'country': 'Denmark'}, {'id': 4642, 'year': 20202021, 'country': 'Denmark'}, {'id': 5961, 'year': 20212022, 'country': 'Denmark'}, {'id': 7426, 'year': 20222023, 'country': 'Denmark'}, {'id': 9545, 'year': 20232024, 'country': 'Denmark'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -466,7 +466,7 @@
     <t>[{'id': 89, 'year': 20162017, 'country': 'Austria'}, {'id': 90, 'year': 20152016, 'country': 'Austria'}, {'id': 91, 'year': 20142015, 'country': 'Austria'}, {'id': 92, 'year': 20132014, 'country': 'Austria'}, {'id': 190, 'year': 20172018, 'country': 'Austria'}, {'id': 1556, 'year': 20182019, 'country': 'Austria'}, {'id': 4384, 'year': 20192020, 'country': 'Austria'}, {'id': 4861, 'year': 20202021, 'country': 'Austria'}, {'id': 6008, 'year': 20212022, 'country': 'Austria'}, {'id': 7890, 'year': 20222023, 'country': 'Austria'}]</t>
   </si>
   <si>
-    <t>[{'id': 82, 'year': 20162017, 'country': 'Belgium'}, {'id': 112, 'year': 20152016, 'country': 'Belgium'}, {'id': 184, 'year': 20172018, 'country': 'Belgium'}, {'id': 1537, 'year': 20182019, 'country': 'Belgium'}, {'id': 2262, 'year': 20192020, 'country': 'Belgium'}, {'id': 4567, 'year': 20202021, 'country': 'Belgium'}, {'id': 6079, 'year': 20212022, 'country': 'Belgium'}, {'id': 7544, 'year': 20222023, 'country': 'Belgium'}]</t>
+    <t>[{'id': 82, 'year': 20162017, 'country': 'Belgium'}, {'id': 112, 'year': 20152016, 'country': 'Belgium'}, {'id': 184, 'year': 20172018, 'country': 'Belgium'}, {'id': 1537, 'year': 20182019, 'country': 'Belgium'}, {'id': 2262, 'year': 20192020, 'country': 'Belgium'}, {'id': 4567, 'year': 20202021, 'country': 'Belgium'}, {'id': 6079, 'year': 20212022, 'country': 'Belgium'}, {'id': 7544, 'year': 20222023, 'country': 'Belgium'}, {'id': 9577, 'year': 20232024, 'country': 'Belgium'}]</t>
   </si>
   <si>
     <t>[{'id': 512, 'year': 20162017, 'country': 'Bolivia'}, {'id': 513, 'year': 20152016, 'country': 'Bolivia'}, {'id': 514, 'year': 20142015, 'country': 'Bolivia'}, {'id': 515, 'year': 20132014, 'country': 'Bolivia'}, {'id': 516, 'year': 20122013, 'country': 'Bolivia'}, {'id': 997, 'year': 2018, 'country': 'Bolivia'}, {'id': 1823, 'year': 2019, 'country': 'Bolivia'}, {'id': 3644, 'year': 2020, 'country': 'Bolivia'}, {'id': 5590, 'year': 2021, 'country': 'Bolivia'}, {'id': 7033, 'year': 2022, 'country': 'Bolivia'}, {'id': 8926, 'year': 2023, 'country': 'Bolivia'}]</t>
@@ -622,7 +622,7 @@
     <t>[{'id': 439, 'year': 20152016, 'country': 'Slovakia'}, {'id': 440, 'year': 20142015, 'country': 'Slovakia'}, {'id': 441, 'year': 20132014, 'country': 'Slovakia'}, {'id': 447, 'year': 20172018, 'country': 'Slovakia'}, {'id': 448, 'year': 20162017, 'country': 'Slovakia'}, {'id': 1606, 'year': 20182019, 'country': 'Slovakia'}, {'id': 2256, 'year': 20192020, 'country': 'Slovakia'}, {'id': 4572, 'year': 20202021, 'country': 'Slovakia'}, {'id': 5944, 'year': 20212022, 'country': 'Slovakia'}, {'id': 7958, 'year': 20222023, 'country': 'Slovakia'}]</t>
   </si>
   <si>
-    <t>[{'id': 426, 'year': 20172018, 'country': 'Slovenia'}, {'id': 427, 'year': 20162017, 'country': 'Slovenia'}, {'id': 428, 'year': 20152016, 'country': 'Slovenia'}, {'id': 429, 'year': 20142015, 'country': 'Slovenia'}, {'id': 433, 'year': 20132014, 'country': 'Slovenia'}, {'id': 1608, 'year': 20182019, 'country': 'Slovenia'}, {'id': 2251, 'year': 20192020, 'country': 'Slovenia'}, {'id': 4635, 'year': 20202021, 'country': 'Slovenia'}, {'id': 6048, 'year': 20212022, 'country': 'Slovenia'}, {'id': 7526, 'year': 20222023, 'country': 'Slovenia'}]</t>
+    <t>[{'id': 426, 'year': 20172018, 'country': 'Slovenia'}, {'id': 427, 'year': 20162017, 'country': 'Slovenia'}, {'id': 428, 'year': 20152016, 'country': 'Slovenia'}, {'id': 429, 'year': 20142015, 'country': 'Slovenia'}, {'id': 433, 'year': 20132014, 'country': 'Slovenia'}, {'id': 1608, 'year': 20182019, 'country': 'Slovenia'}, {'id': 2251, 'year': 20192020, 'country': 'Slovenia'}, {'id': 4635, 'year': 20202021, 'country': 'Slovenia'}, {'id': 6048, 'year': 20212022, 'country': 'Slovenia'}, {'id': 7526, 'year': 20222023, 'country': 'Slovenia'}, {'id': 9579, 'year': 20232024, 'country': 'Slovenia'}]</t>
   </si>
   <si>
     <t>[{'id': 747, 'year': 2017, 'country': 'South Korea'}, {'id': 748, 'year': 2016, 'country': 'South Korea'}, {'id': 749, 'year': 2015, 'country': 'South Korea'}, {'id': 750, 'year': 2014, 'country': 'South Korea'}, {'id': 751, 'year': 2013, 'country': 'South Korea'}, {'id': 1115, 'year': 2018, 'country': 'South Korea'}, {'id': 1862, 'year': 2019, 'country': 'South Korea'}, {'id': 4379, 'year': 2020, 'country': 'South Korea'}, {'id': 5506, 'year': 2021, 'country': 'South Korea'}, {'id': 7061, 'year': 2022, 'country': 'South Korea'}, {'id': 8899, 'year': 2023, 'country': 'South Korea'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -511,7 +511,7 @@
     <t>[{'id': 397, 'year': 20172018, 'country': 'Croatia'}, {'id': 401, 'year': 20162017, 'country': 'Croatia'}, {'id': 402, 'year': 20152016, 'country': 'Croatia'}, {'id': 403, 'year': 20142015, 'country': 'Croatia'}, {'id': 404, 'year': 20132014, 'country': 'Croatia'}, {'id': 1557, 'year': 20182019, 'country': 'Croatia'}, {'id': 2278, 'year': 20192020, 'country': 'Croatia'}, {'id': 4660, 'year': 20202021, 'country': 'Croatia'}, {'id': 5956, 'year': 20212022, 'country': 'Croatia'}, {'id': 7457, 'year': 20222023, 'country': 'Croatia'}, {'id': 9542, 'year': 20232024, 'country': 'Croatia'}]</t>
   </si>
   <si>
-    <t>[{'id': 537, 'year': 20172018, 'country': 'Czech Republic'}, {'id': 538, 'year': 20162017, 'country': 'Czech Republic'}, {'id': 539, 'year': 20152016, 'country': 'Czech Republic'}, {'id': 540, 'year': 20142015, 'country': 'Czech Republic'}, {'id': 541, 'year': 20132014, 'country': 'Czech Republic'}, {'id': 1545, 'year': 20182019, 'country': 'Czech Republic'}, {'id': 2268, 'year': 20192020, 'country': 'Czech Republic'}, {'id': 4308, 'year': 20122013, 'country': 'Czech Republic'}, {'id': 4314, 'year': 20112012, 'country': 'Czech Republic'}, {'id': 4328, 'year': 20102011, 'country': 'Czech Republic'}, {'id': 4335, 'year': 20092010, 'country': 'Czech Republic'}, {'id': 4801, 'year': 20202021, 'country': 'Czech Republic'}, {'id': 5938, 'year': 20212022, 'country': 'Czech Republic'}, {'id': 7586, 'year': 20222023, 'country': 'Czech Republic'}]</t>
+    <t>[{'id': 537, 'year': 20172018, 'country': 'Czech Republic'}, {'id': 538, 'year': 20162017, 'country': 'Czech Republic'}, {'id': 539, 'year': 20152016, 'country': 'Czech Republic'}, {'id': 540, 'year': 20142015, 'country': 'Czech Republic'}, {'id': 541, 'year': 20132014, 'country': 'Czech Republic'}, {'id': 1545, 'year': 20182019, 'country': 'Czech Republic'}, {'id': 2268, 'year': 20192020, 'country': 'Czech Republic'}, {'id': 4308, 'year': 20122013, 'country': 'Czech Republic'}, {'id': 4314, 'year': 20112012, 'country': 'Czech Republic'}, {'id': 4328, 'year': 20102011, 'country': 'Czech Republic'}, {'id': 4335, 'year': 20092010, 'country': 'Czech Republic'}, {'id': 4801, 'year': 20202021, 'country': 'Czech Republic'}, {'id': 5938, 'year': 20212022, 'country': 'Czech Republic'}, {'id': 7586, 'year': 20222023, 'country': 'Czech Republic'}, {'id': 9592, 'year': 20232024, 'country': 'Czech Republic'}]</t>
   </si>
   <si>
     <t>[{'id': 700, 'year': 20172018, 'country': 'Denmark'}, {'id': 701, 'year': 20162017, 'country': 'Denmark'}, {'id': 702, 'year': 20152016, 'country': 'Denmark'}, {'id': 703, 'year': 20142015, 'country': 'Denmark'}, {'id': 704, 'year': 20132014, 'country': 'Denmark'}, {'id': 1539, 'year': 20182019, 'country': 'Denmark'}, {'id': 4389, 'year': 20192020, 'country': 'Denmark'}, {'id': 4641, 'year': 20202021, 'country': 'Denmark'}, {'id': 5959, 'year': 20212022, 'country': 'Denmark'}, {'id': 7450, 'year': 20222023, 'country': 'Denmark'}, {'id': 9567, 'year': 20232024, 'country': 'Denmark'}]</t>
@@ -529,10 +529,10 @@
     <t>[{'id': 22, 'year': 20162017, 'country': 'England'}, {'id': 25, 'year': 20152016, 'country': 'England'}, {'id': 26, 'year': 20142015, 'country': 'England'}, {'id': 27, 'year': 20132014, 'country': 'England'}, {'id': 165, 'year': 20172018, 'country': 'England'}, {'id': 1624, 'year': 20182019, 'country': 'England'}, {'id': 2187, 'year': 20192020, 'country': 'England'}, {'id': 3141, 'year': 20122013, 'country': 'England'}, {'id': 3143, 'year': 20112012, 'country': 'England'}, {'id': 3146, 'year': 20102011, 'country': 'England'}, {'id': 3147, 'year': 20092010, 'country': 'England'}, {'id': 4912, 'year': 20202021, 'country': 'England'}, {'id': 6089, 'year': 20212022, 'country': 'England'}, {'id': 7593, 'year': 20222023, 'country': 'England'}, {'id': 8031, 'year': 20082009, 'country': 'England'}]</t>
   </si>
   <si>
-    <t>[{'id': 28, 'year': 20162017, 'country': 'England'}, {'id': 29, 'year': 20152016, 'country': 'England'}, {'id': 30, 'year': 20142015, 'country': 'England'}, {'id': 31, 'year': 20132014, 'country': 'England'}, {'id': 166, 'year': 20172018, 'country': 'England'}, {'id': 1564, 'year': 20182019, 'country': 'England'}, {'id': 2191, 'year': 20192020, 'country': 'England'}, {'id': 3950, 'year': 20122013, 'country': 'England'}, {'id': 3951, 'year': 20092010, 'country': 'England'}, {'id': 3952, 'year': 20112012, 'country': 'England'}, {'id': 4845, 'year': 20202021, 'country': 'England'}, {'id': 4923, 'year': 20102011, 'country': 'England'}, {'id': 6017, 'year': 20212022, 'country': 'England'}, {'id': 7570, 'year': 20222023, 'country': 'England'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 32, 'year': 20162017, 'country': 'England'}, {'id': 33, 'year': 20152016, 'country': 'England'}, {'id': 170, 'year': 20172018, 'country': 'England'}, {'id': 1574, 'year': 20182019, 'country': 'England'}, {'id': 2192, 'year': 20192020, 'country': 'England'}, {'id': 4844, 'year': 20202021, 'country': 'England'}, {'id': 6015, 'year': 20212022, 'country': 'England'}, {'id': 7574, 'year': 20222023, 'country': 'England'}]</t>
+    <t>[{'id': 28, 'year': 20162017, 'country': 'England'}, {'id': 29, 'year': 20152016, 'country': 'England'}, {'id': 30, 'year': 20142015, 'country': 'England'}, {'id': 31, 'year': 20132014, 'country': 'England'}, {'id': 166, 'year': 20172018, 'country': 'England'}, {'id': 1564, 'year': 20182019, 'country': 'England'}, {'id': 2191, 'year': 20192020, 'country': 'England'}, {'id': 3950, 'year': 20122013, 'country': 'England'}, {'id': 3951, 'year': 20092010, 'country': 'England'}, {'id': 3952, 'year': 20112012, 'country': 'England'}, {'id': 4845, 'year': 20202021, 'country': 'England'}, {'id': 4923, 'year': 20102011, 'country': 'England'}, {'id': 6017, 'year': 20212022, 'country': 'England'}, {'id': 7570, 'year': 20222023, 'country': 'England'}, {'id': 9582, 'year': 20232024, 'country': 'England'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 32, 'year': 20162017, 'country': 'England'}, {'id': 33, 'year': 20152016, 'country': 'England'}, {'id': 170, 'year': 20172018, 'country': 'England'}, {'id': 1574, 'year': 20182019, 'country': 'England'}, {'id': 2192, 'year': 20192020, 'country': 'England'}, {'id': 4844, 'year': 20202021, 'country': 'England'}, {'id': 6015, 'year': 20212022, 'country': 'England'}, {'id': 7574, 'year': 20222023, 'country': 'England'}, {'id': 9581, 'year': 20232024, 'country': 'England'}]</t>
   </si>
   <si>
     <t>[{'id': 392, 'year': 20172018, 'country': 'England'}, {'id': 393, 'year': 20162017, 'country': 'England'}, {'id': 394, 'year': 20152016, 'country': 'England'}, {'id': 395, 'year': 20142015, 'country': 'England'}, {'id': 396, 'year': 20132014, 'country': 'England'}, {'id': 1576, 'year': 20182019, 'country': 'England'}, {'id': 2287, 'year': 20192020, 'country': 'England'}, {'id': 4124, 'year': 20122013, 'country': 'England'}, {'id': 4154, 'year': 20112012, 'country': 'England'}, {'id': 5018, 'year': 20202021, 'country': 'England'}, {'id': 6088, 'year': 20212022, 'country': 'England'}, {'id': 7729, 'year': 20222023, 'country': 'England'}]</t>
@@ -640,7 +640,7 @@
     <t>[{'id': 104, 'year': 2017, 'country': 'Sweden'}, {'id': 105, 'year': 2016, 'country': 'Sweden'}, {'id': 106, 'year': 2015, 'country': 'Sweden'}, {'id': 107, 'year': 2014, 'country': 'Sweden'}, {'id': 994, 'year': 2018, 'country': 'Sweden'}, {'id': 1848, 'year': 2019, 'country': 'Sweden'}, {'id': 3703, 'year': 2020, 'country': 'Sweden'}, {'id': 4307, 'year': 2013, 'country': 'Sweden'}, {'id': 4315, 'year': 2011, 'country': 'Sweden'}, {'id': 4329, 'year': 2010, 'country': 'Sweden'}, {'id': 5505, 'year': 2021, 'country': 'Sweden'}, {'id': 7064, 'year': 2022, 'country': 'Sweden'}, {'id': 8737, 'year': 2023, 'country': 'Sweden'}]</t>
   </si>
   <si>
-    <t>[{'id': 136, 'year': 20162017, 'country': 'Switzerland'}, {'id': 137, 'year': 20152016, 'country': 'Switzerland'}, {'id': 138, 'year': 20142015, 'country': 'Switzerland'}, {'id': 139, 'year': 20132014, 'country': 'Switzerland'}, {'id': 140, 'year': 20122013, 'country': 'Switzerland'}, {'id': 186, 'year': 20172018, 'country': 'Switzerland'}, {'id': 1610, 'year': 20182019, 'country': 'Switzerland'}, {'id': 2249, 'year': 20192020, 'country': 'Switzerland'}, {'id': 4906, 'year': 20202021, 'country': 'Switzerland'}, {'id': 6044, 'year': 20212022, 'country': 'Switzerland'}, {'id': 7504, 'year': 20222023, 'country': 'Switzerland'}]</t>
+    <t>[{'id': 136, 'year': 20162017, 'country': 'Switzerland'}, {'id': 137, 'year': 20152016, 'country': 'Switzerland'}, {'id': 138, 'year': 20142015, 'country': 'Switzerland'}, {'id': 139, 'year': 20132014, 'country': 'Switzerland'}, {'id': 140, 'year': 20122013, 'country': 'Switzerland'}, {'id': 186, 'year': 20172018, 'country': 'Switzerland'}, {'id': 1610, 'year': 20182019, 'country': 'Switzerland'}, {'id': 2249, 'year': 20192020, 'country': 'Switzerland'}, {'id': 4906, 'year': 20202021, 'country': 'Switzerland'}, {'id': 6044, 'year': 20212022, 'country': 'Switzerland'}, {'id': 7504, 'year': 20222023, 'country': 'Switzerland'}, {'id': 9580, 'year': 20232024, 'country': 'Switzerland'}]</t>
   </si>
   <si>
     <t>[{'id': 798, 'year': 20172018, 'country': 'Tunisia'}, {'id': 799, 'year': 20162017, 'country': 'Tunisia'}, {'id': 800, 'year': 20152016, 'country': 'Tunisia'}, {'id': 801, 'year': 20142015, 'country': 'Tunisia'}, {'id': 802, 'year': 20132014, 'country': 'Tunisia'}, {'id': 1644, 'year': 20182019, 'country': 'Tunisia'}, {'id': 2650, 'year': 20192020, 'country': 'Tunisia'}, {'id': 5257, 'year': 20202021, 'country': 'Tunisia'}, {'id': 6726, 'year': 20212022, 'country': 'Tunisia'}, {'id': 8428, 'year': 20222023, 'country': 'Tunisia'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -547,7 +547,7 @@
     <t>[{'id': 65, 'year': 20162017, 'country': 'France'}, {'id': 66, 'year': 20142015, 'country': 'France'}, {'id': 67, 'year': 20132014, 'country': 'France'}, {'id': 75, 'year': 20152016, 'country': 'France'}, {'id': 180, 'year': 20172018, 'country': 'France'}, {'id': 1508, 'year': 20182019, 'country': 'France'}, {'id': 2392, 'year': 20192020, 'country': 'France'}, {'id': 4127, 'year': 20122013, 'country': 'France'}, {'id': 4136, 'year': 20112012, 'country': 'France'}, {'id': 4193, 'year': 20102011, 'country': 'France'}, {'id': 4199, 'year': 20092010, 'country': 'France'}, {'id': 4505, 'year': 20202021, 'country': 'France'}, {'id': 6019, 'year': 20212022, 'country': 'France'}, {'id': 7500, 'year': 20222023, 'country': 'France'}]</t>
   </si>
   <si>
-    <t>[{'id': 73, 'year': 20162017, 'country': 'France'}, {'id': 74, 'year': 20152016, 'country': 'France'}, {'id': 76, 'year': 20142015, 'country': 'France'}, {'id': 181, 'year': 20172018, 'country': 'France'}, {'id': 1579, 'year': 20182019, 'country': 'France'}, {'id': 2396, 'year': 20192020, 'country': 'France'}, {'id': 4164, 'year': 20132014, 'country': 'France'}, {'id': 4185, 'year': 20122013, 'country': 'France'}, {'id': 4645, 'year': 20202021, 'country': 'France'}, {'id': 6018, 'year': 20212022, 'country': 'France'}, {'id': 7501, 'year': 20222023, 'country': 'France'}]</t>
+    <t>[{'id': 73, 'year': 20162017, 'country': 'France'}, {'id': 74, 'year': 20152016, 'country': 'France'}, {'id': 76, 'year': 20142015, 'country': 'France'}, {'id': 181, 'year': 20172018, 'country': 'France'}, {'id': 1579, 'year': 20182019, 'country': 'France'}, {'id': 2396, 'year': 20192020, 'country': 'France'}, {'id': 4164, 'year': 20132014, 'country': 'France'}, {'id': 4185, 'year': 20122013, 'country': 'France'}, {'id': 4645, 'year': 20202021, 'country': 'France'}, {'id': 6018, 'year': 20212022, 'country': 'France'}, {'id': 7501, 'year': 20222023, 'country': 'France'}, {'id': 9621, 'year': 20232024, 'country': 'France'}]</t>
   </si>
   <si>
     <t>[{'id': 83, 'year': 20162017, 'country': 'Germany'}, {'id': 84, 'year': 20152016, 'country': 'Germany'}, {'id': 85, 'year': 20142015, 'country': 'Germany'}, {'id': 188, 'year': 20172018, 'country': 'Germany'}, {'id': 1578, 'year': 20182019, 'country': 'Germany'}, {'id': 4131, 'year': 20132014, 'country': 'Germany'}, {'id': 4168, 'year': 20122013, 'country': 'Germany'}, {'id': 4195, 'year': 20112012, 'country': 'Germany'}, {'id': 4200, 'year': 20102011, 'country': 'Germany'}, {'id': 4388, 'year': 20192020, 'country': 'Germany'}, {'id': 4676, 'year': 20202021, 'country': 'Germany'}, {'id': 6020, 'year': 20212022, 'country': 'Germany'}, {'id': 7499, 'year': 20222023, 'country': 'Germany'}]</t>
@@ -610,7 +610,7 @@
     <t>[{'id': 449, 'year': 2017, 'country': 'Republic of Ireland'}, {'id': 450, 'year': 2016, 'country': 'Republic of Ireland'}, {'id': 451, 'year': 2015, 'country': 'Republic of Ireland'}, {'id': 452, 'year': 2014, 'country': 'Republic of Ireland'}, {'id': 453, 'year': 2013, 'country': 'Republic of Ireland'}, {'id': 990, 'year': 2018, 'country': 'Republic of Ireland'}, {'id': 1844, 'year': 2019, 'country': 'Republic of Ireland'}, {'id': 3570, 'year': 2020, 'country': 'Republic of Ireland'}, {'id': 5534, 'year': 2021, 'country': 'Republic of Ireland'}, {'id': 6967, 'year': 2022, 'country': 'Republic of Ireland'}, {'id': 8741, 'year': 2023, 'country': 'Republic of Ireland'}]</t>
   </si>
   <si>
-    <t>[{'id': 1086, 'year': 20172018, 'country': 'Romania'}, {'id': 1087, 'year': 20162017, 'country': 'Romania'}, {'id': 1088, 'year': 20152016, 'country': 'Romania'}, {'id': 1089, 'year': 20142015, 'country': 'Romania'}, {'id': 1090, 'year': 20132014, 'country': 'Romania'}, {'id': 1596, 'year': 20182019, 'country': 'Romania'}, {'id': 2312, 'year': 20192020, 'country': 'Romania'}, {'id': 4764, 'year': 20202021, 'country': 'Romania'}, {'id': 6037, 'year': 20212022, 'country': 'Romania'}, {'id': 7663, 'year': 20222023, 'country': 'Romania'}]</t>
+    <t>[{'id': 1086, 'year': 20172018, 'country': 'Romania'}, {'id': 1087, 'year': 20162017, 'country': 'Romania'}, {'id': 1088, 'year': 20152016, 'country': 'Romania'}, {'id': 1089, 'year': 20142015, 'country': 'Romania'}, {'id': 1090, 'year': 20132014, 'country': 'Romania'}, {'id': 1596, 'year': 20182019, 'country': 'Romania'}, {'id': 2312, 'year': 20192020, 'country': 'Romania'}, {'id': 4764, 'year': 20202021, 'country': 'Romania'}, {'id': 6037, 'year': 20212022, 'country': 'Romania'}, {'id': 7663, 'year': 20222023, 'country': 'Romania'}, {'id': 9622, 'year': 20232024, 'country': 'Romania'}]</t>
   </si>
   <si>
     <t>[{'id': 2, 'year': 20162017, 'country': 'Scotland'}, {'id': 164, 'year': 20172018, 'country': 'Scotland'}, {'id': 167, 'year': 20152016, 'country': 'Scotland'}, {'id': 168, 'year': 20142015, 'country': 'Scotland'}, {'id': 169, 'year': 20132014, 'country': 'Scotland'}, {'id': 223, 'year': 20122013, 'country': 'Scotland'}, {'id': 1600, 'year': 20182019, 'country': 'Scotland'}, {'id': 2361, 'year': 20192020, 'country': 'Scotland'}, {'id': 4478, 'year': 20202021, 'country': 'Scotland'}, {'id': 5992, 'year': 20212022, 'country': 'Scotland'}, {'id': 7494, 'year': 20222023, 'country': 'Scotland'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -613,7 +613,7 @@
     <t>[{'id': 1086, 'year': 20172018, 'country': 'Romania'}, {'id': 1087, 'year': 20162017, 'country': 'Romania'}, {'id': 1088, 'year': 20152016, 'country': 'Romania'}, {'id': 1089, 'year': 20142015, 'country': 'Romania'}, {'id': 1090, 'year': 20132014, 'country': 'Romania'}, {'id': 1596, 'year': 20182019, 'country': 'Romania'}, {'id': 2312, 'year': 20192020, 'country': 'Romania'}, {'id': 4764, 'year': 20202021, 'country': 'Romania'}, {'id': 6037, 'year': 20212022, 'country': 'Romania'}, {'id': 7663, 'year': 20222023, 'country': 'Romania'}, {'id': 9622, 'year': 20232024, 'country': 'Romania'}]</t>
   </si>
   <si>
-    <t>[{'id': 2, 'year': 20162017, 'country': 'Scotland'}, {'id': 164, 'year': 20172018, 'country': 'Scotland'}, {'id': 167, 'year': 20152016, 'country': 'Scotland'}, {'id': 168, 'year': 20142015, 'country': 'Scotland'}, {'id': 169, 'year': 20132014, 'country': 'Scotland'}, {'id': 223, 'year': 20122013, 'country': 'Scotland'}, {'id': 1600, 'year': 20182019, 'country': 'Scotland'}, {'id': 2361, 'year': 20192020, 'country': 'Scotland'}, {'id': 4478, 'year': 20202021, 'country': 'Scotland'}, {'id': 5992, 'year': 20212022, 'country': 'Scotland'}, {'id': 7494, 'year': 20222023, 'country': 'Scotland'}]</t>
+    <t>[{'id': 2, 'year': 20162017, 'country': 'Scotland'}, {'id': 164, 'year': 20172018, 'country': 'Scotland'}, {'id': 167, 'year': 20152016, 'country': 'Scotland'}, {'id': 168, 'year': 20142015, 'country': 'Scotland'}, {'id': 169, 'year': 20132014, 'country': 'Scotland'}, {'id': 223, 'year': 20122013, 'country': 'Scotland'}, {'id': 1600, 'year': 20182019, 'country': 'Scotland'}, {'id': 2361, 'year': 20192020, 'country': 'Scotland'}, {'id': 4478, 'year': 20202021, 'country': 'Scotland'}, {'id': 5992, 'year': 20212022, 'country': 'Scotland'}, {'id': 7494, 'year': 20222023, 'country': 'Scotland'}, {'id': 9636, 'year': 20232024, 'country': 'Scotland'}]</t>
   </si>
   <si>
     <t>[{'id': 416, 'year': 20172018, 'country': 'Serbia'}, {'id': 417, 'year': 20162017, 'country': 'Serbia'}, {'id': 418, 'year': 20152016, 'country': 'Serbia'}, {'id': 419, 'year': 20142015, 'country': 'Serbia'}, {'id': 420, 'year': 20132014, 'country': 'Serbia'}, {'id': 1604, 'year': 20182019, 'country': 'Serbia'}, {'id': 2254, 'year': 20192020, 'country': 'Serbia'}, {'id': 4533, 'year': 20202021, 'country': 'Serbia'}, {'id': 6046, 'year': 20212022, 'country': 'Serbia'}, {'id': 7492, 'year': 20222023, 'country': 'Serbia'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -538,7 +538,7 @@
     <t>[{'id': 392, 'year': 20172018, 'country': 'England'}, {'id': 393, 'year': 20162017, 'country': 'England'}, {'id': 394, 'year': 20152016, 'country': 'England'}, {'id': 395, 'year': 20142015, 'country': 'England'}, {'id': 396, 'year': 20132014, 'country': 'England'}, {'id': 1576, 'year': 20182019, 'country': 'England'}, {'id': 2287, 'year': 20192020, 'country': 'England'}, {'id': 4124, 'year': 20122013, 'country': 'England'}, {'id': 4154, 'year': 20112012, 'country': 'England'}, {'id': 5018, 'year': 20202021, 'country': 'England'}, {'id': 6088, 'year': 20212022, 'country': 'England'}, {'id': 7729, 'year': 20222023, 'country': 'England'}]</t>
   </si>
   <si>
-    <t>[{'id': 9, 'year': 20162017, 'country': 'England'}, {'id': 10, 'year': 20152016, 'country': 'England'}, {'id': 11, 'year': 20142015, 'country': 'England'}, {'id': 12, 'year': 20132014, 'country': 'England'}, {'id': 161, 'year': 20172018, 'country': 'England'}, {'id': 246, 'year': 20122013, 'country': 'England'}, {'id': 1625, 'year': 20182019, 'country': 'England'}, {'id': 2012, 'year': 20192020, 'country': 'England'}, {'id': 3119, 'year': 20112012, 'country': 'England'}, {'id': 3121, 'year': 20102011, 'country': 'England'}, {'id': 3125, 'year': 20092010, 'country': 'England'}, {'id': 3131, 'year': 20082009, 'country': 'England'}, {'id': 3137, 'year': 20072008, 'country': 'England'}, {'id': 4759, 'year': 20202021, 'country': 'England'}, {'id': 6135, 'year': 20212022, 'country': 'England'}, {'id': 7704, 'year': 20222023, 'country': 'England'}]</t>
+    <t>[{'id': 9, 'year': 20162017, 'country': 'England'}, {'id': 10, 'year': 20152016, 'country': 'England'}, {'id': 11, 'year': 20142015, 'country': 'England'}, {'id': 12, 'year': 20132014, 'country': 'England'}, {'id': 161, 'year': 20172018, 'country': 'England'}, {'id': 246, 'year': 20122013, 'country': 'England'}, {'id': 1625, 'year': 20182019, 'country': 'England'}, {'id': 2012, 'year': 20192020, 'country': 'England'}, {'id': 3119, 'year': 20112012, 'country': 'England'}, {'id': 3121, 'year': 20102011, 'country': 'England'}, {'id': 3125, 'year': 20092010, 'country': 'England'}, {'id': 3131, 'year': 20082009, 'country': 'England'}, {'id': 3137, 'year': 20072008, 'country': 'England'}, {'id': 4759, 'year': 20202021, 'country': 'England'}, {'id': 6135, 'year': 20212022, 'country': 'England'}, {'id': 7704, 'year': 20222023, 'country': 'England'}, {'id': 9660, 'year': 20232024, 'country': 'England'}]</t>
   </si>
   <si>
     <t>[{'id': 58, 'year': 2017, 'country': 'Finland'}, {'id': 59, 'year': 2016, 'country': 'Finland'}, {'id': 60, 'year': 2014, 'country': 'Finland'}, {'id': 72, 'year': 2015, 'country': 'Finland'}, {'id': 1191, 'year': 2018, 'country': 'Finland'}, {'id': 1874, 'year': 2019, 'country': 'Finland'}, {'id': 3645, 'year': 2020, 'country': 'Finland'}, {'id': 5477, 'year': 2021, 'country': 'Finland'}, {'id': 7120, 'year': 2022, 'country': 'Finland'}, {'id': 8935, 'year': 2023, 'country': 'Finland'}]</t>
@@ -550,10 +550,10 @@
     <t>[{'id': 73, 'year': 20162017, 'country': 'France'}, {'id': 74, 'year': 20152016, 'country': 'France'}, {'id': 76, 'year': 20142015, 'country': 'France'}, {'id': 181, 'year': 20172018, 'country': 'France'}, {'id': 1579, 'year': 20182019, 'country': 'France'}, {'id': 2396, 'year': 20192020, 'country': 'France'}, {'id': 4164, 'year': 20132014, 'country': 'France'}, {'id': 4185, 'year': 20122013, 'country': 'France'}, {'id': 4645, 'year': 20202021, 'country': 'France'}, {'id': 6018, 'year': 20212022, 'country': 'France'}, {'id': 7501, 'year': 20222023, 'country': 'France'}, {'id': 9621, 'year': 20232024, 'country': 'France'}]</t>
   </si>
   <si>
-    <t>[{'id': 83, 'year': 20162017, 'country': 'Germany'}, {'id': 84, 'year': 20152016, 'country': 'Germany'}, {'id': 85, 'year': 20142015, 'country': 'Germany'}, {'id': 188, 'year': 20172018, 'country': 'Germany'}, {'id': 1578, 'year': 20182019, 'country': 'Germany'}, {'id': 4131, 'year': 20132014, 'country': 'Germany'}, {'id': 4168, 'year': 20122013, 'country': 'Germany'}, {'id': 4195, 'year': 20112012, 'country': 'Germany'}, {'id': 4200, 'year': 20102011, 'country': 'Germany'}, {'id': 4388, 'year': 20192020, 'country': 'Germany'}, {'id': 4676, 'year': 20202021, 'country': 'Germany'}, {'id': 6020, 'year': 20212022, 'country': 'Germany'}, {'id': 7499, 'year': 20222023, 'country': 'Germany'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 3, 'year': 20162017, 'country': 'Germany'}, {'id': 4, 'year': 20152016, 'country': 'Germany'}, {'id': 5, 'year': 20142015, 'country': 'Germany'}, {'id': 7, 'year': 20132014, 'country': 'Germany'}, {'id': 177, 'year': 20172018, 'country': 'Germany'}, {'id': 1636, 'year': 20182019, 'country': 'Germany'}, {'id': 4105, 'year': 20122013, 'country': 'Germany'}, {'id': 4123, 'year': 20112012, 'country': 'Germany'}, {'id': 4133, 'year': 20102011, 'country': 'Germany'}, {'id': 4140, 'year': 20092010, 'country': 'Germany'}, {'id': 4392, 'year': 20192020, 'country': 'Germany'}, {'id': 4624, 'year': 20082009, 'country': 'Germany'}, {'id': 4628, 'year': 20072008, 'country': 'Germany'}, {'id': 4629, 'year': 20062007, 'country': 'Germany'}, {'id': 4673, 'year': 20202021, 'country': 'Germany'}, {'id': 6192, 'year': 20212022, 'country': 'Germany'}, {'id': 7664, 'year': 20222023, 'country': 'Germany'}]</t>
+    <t>[{'id': 83, 'year': 20162017, 'country': 'Germany'}, {'id': 84, 'year': 20152016, 'country': 'Germany'}, {'id': 85, 'year': 20142015, 'country': 'Germany'}, {'id': 188, 'year': 20172018, 'country': 'Germany'}, {'id': 1578, 'year': 20182019, 'country': 'Germany'}, {'id': 4131, 'year': 20132014, 'country': 'Germany'}, {'id': 4168, 'year': 20122013, 'country': 'Germany'}, {'id': 4195, 'year': 20112012, 'country': 'Germany'}, {'id': 4200, 'year': 20102011, 'country': 'Germany'}, {'id': 4388, 'year': 20192020, 'country': 'Germany'}, {'id': 4676, 'year': 20202021, 'country': 'Germany'}, {'id': 6020, 'year': 20212022, 'country': 'Germany'}, {'id': 7499, 'year': 20222023, 'country': 'Germany'}, {'id': 9656, 'year': 20232024, 'country': 'Germany'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 3, 'year': 20162017, 'country': 'Germany'}, {'id': 4, 'year': 20152016, 'country': 'Germany'}, {'id': 5, 'year': 20142015, 'country': 'Germany'}, {'id': 7, 'year': 20132014, 'country': 'Germany'}, {'id': 177, 'year': 20172018, 'country': 'Germany'}, {'id': 1636, 'year': 20182019, 'country': 'Germany'}, {'id': 4105, 'year': 20122013, 'country': 'Germany'}, {'id': 4123, 'year': 20112012, 'country': 'Germany'}, {'id': 4133, 'year': 20102011, 'country': 'Germany'}, {'id': 4140, 'year': 20092010, 'country': 'Germany'}, {'id': 4392, 'year': 20192020, 'country': 'Germany'}, {'id': 4624, 'year': 20082009, 'country': 'Germany'}, {'id': 4628, 'year': 20072008, 'country': 'Germany'}, {'id': 4629, 'year': 20062007, 'country': 'Germany'}, {'id': 4673, 'year': 20202021, 'country': 'Germany'}, {'id': 6192, 'year': 20212022, 'country': 'Germany'}, {'id': 7664, 'year': 20222023, 'country': 'Germany'}, {'id': 9655, 'year': 20232024, 'country': 'Germany'}]</t>
   </si>
   <si>
     <t>[{'id': 207, 'year': 20172018, 'country': 'Greece'}, {'id': 208, 'year': 20162017, 'country': 'Greece'}, {'id': 209, 'year': 20152016, 'country': 'Greece'}, {'id': 933, 'year': 20142015, 'country': 'Greece'}, {'id': 934, 'year': 20132014, 'country': 'Greece'}, {'id': 1752, 'year': 20182019, 'country': 'Greece'}, {'id': 2667, 'year': 20192020, 'country': 'Greece'}, {'id': 4957, 'year': 20202021, 'country': 'Greece'}, {'id': 6282, 'year': 20212022, 'country': 'Greece'}, {'id': 7954, 'year': 20222023, 'country': 'Greece'}]</t>
@@ -580,10 +580,10 @@
     <t>[{'id': 307, 'year': 20172018, 'country': 'Mexico'}, {'id': 308, 'year': 20162017, 'country': 'Mexico'}, {'id': 309, 'year': 20152016, 'country': 'Mexico'}, {'id': 310, 'year': 20142015, 'country': 'Mexico'}, {'id': 311, 'year': 20132014, 'country': 'Mexico'}, {'id': 312, 'year': 20122013, 'country': 'Mexico'}, {'id': 1582, 'year': 20182019, 'country': 'Mexico'}, {'id': 2270, 'year': 20192020, 'country': 'Mexico'}, {'id': 4507, 'year': 20202021, 'country': 'Mexico'}, {'id': 6038, 'year': 20212022, 'country': 'Mexico'}, {'id': 7425, 'year': 20222023, 'country': 'Mexico'}, {'id': 9525, 'year': 20232024, 'country': 'Mexico'}]</t>
   </si>
   <si>
-    <t>[{'id': 55, 'year': 20162017, 'country': 'Netherlands'}, {'id': 56, 'year': 20152016, 'country': 'Netherlands'}, {'id': 57, 'year': 20142015, 'country': 'Netherlands'}, {'id': 179, 'year': 20172018, 'country': 'Netherlands'}, {'id': 1584, 'year': 20182019, 'country': 'Netherlands'}, {'id': 2273, 'year': 20192020, 'country': 'Netherlands'}, {'id': 4228, 'year': 20132014, 'country': 'Netherlands'}, {'id': 4236, 'year': 20122013, 'country': 'Netherlands'}, {'id': 4243, 'year': 20112012, 'country': 'Netherlands'}, {'id': 4246, 'year': 20102011, 'country': 'Netherlands'}, {'id': 4247, 'year': 20092010, 'country': 'Netherlands'}, {'id': 4748, 'year': 20202021, 'country': 'Netherlands'}, {'id': 5950, 'year': 20212022, 'country': 'Netherlands'}, {'id': 7484, 'year': 20222023, 'country': 'Netherlands'}]</t>
-  </si>
-  <si>
-    <t>[{'id': 51, 'year': 20162017, 'country': 'Netherlands'}, {'id': 52, 'year': 20152016, 'country': 'Netherlands'}, {'id': 53, 'year': 20142015, 'country': 'Netherlands'}, {'id': 54, 'year': 20132014, 'country': 'Netherlands'}, {'id': 178, 'year': 20172018, 'country': 'Netherlands'}, {'id': 1585, 'year': 20182019, 'country': 'Netherlands'}, {'id': 2272, 'year': 20192020, 'country': 'Netherlands'}, {'id': 4226, 'year': 20122013, 'country': 'Netherlands'}, {'id': 4234, 'year': 20112012, 'country': 'Netherlands'}, {'id': 4746, 'year': 20202021, 'country': 'Netherlands'}, {'id': 5951, 'year': 20212022, 'country': 'Netherlands'}, {'id': 7482, 'year': 20222023, 'country': 'Netherlands'}]</t>
+    <t>[{'id': 55, 'year': 20162017, 'country': 'Netherlands'}, {'id': 56, 'year': 20152016, 'country': 'Netherlands'}, {'id': 57, 'year': 20142015, 'country': 'Netherlands'}, {'id': 179, 'year': 20172018, 'country': 'Netherlands'}, {'id': 1584, 'year': 20182019, 'country': 'Netherlands'}, {'id': 2273, 'year': 20192020, 'country': 'Netherlands'}, {'id': 4228, 'year': 20132014, 'country': 'Netherlands'}, {'id': 4236, 'year': 20122013, 'country': 'Netherlands'}, {'id': 4243, 'year': 20112012, 'country': 'Netherlands'}, {'id': 4246, 'year': 20102011, 'country': 'Netherlands'}, {'id': 4247, 'year': 20092010, 'country': 'Netherlands'}, {'id': 4748, 'year': 20202021, 'country': 'Netherlands'}, {'id': 5950, 'year': 20212022, 'country': 'Netherlands'}, {'id': 7484, 'year': 20222023, 'country': 'Netherlands'}, {'id': 9654, 'year': 20232024, 'country': 'Netherlands'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 51, 'year': 20162017, 'country': 'Netherlands'}, {'id': 52, 'year': 20152016, 'country': 'Netherlands'}, {'id': 53, 'year': 20142015, 'country': 'Netherlands'}, {'id': 54, 'year': 20132014, 'country': 'Netherlands'}, {'id': 178, 'year': 20172018, 'country': 'Netherlands'}, {'id': 1585, 'year': 20182019, 'country': 'Netherlands'}, {'id': 2272, 'year': 20192020, 'country': 'Netherlands'}, {'id': 4226, 'year': 20122013, 'country': 'Netherlands'}, {'id': 4234, 'year': 20112012, 'country': 'Netherlands'}, {'id': 4746, 'year': 20202021, 'country': 'Netherlands'}, {'id': 5951, 'year': 20212022, 'country': 'Netherlands'}, {'id': 7482, 'year': 20222023, 'country': 'Netherlands'}, {'id': 9653, 'year': 20232024, 'country': 'Netherlands'}]</t>
   </si>
   <si>
     <t>[{'id': 1366, 'year': 20172018, 'country': 'Netherlands'}, {'id': 1367, 'year': 20162017, 'country': 'Netherlands'}, {'id': 1586, 'year': 20182019, 'country': 'Netherlands'}, {'id': 2275, 'year': 20192020, 'country': 'Netherlands'}, {'id': 4749, 'year': 20202021, 'country': 'Netherlands'}, {'id': 6098, 'year': 20212022, 'country': 'Netherlands'}, {'id': 7702, 'year': 20222023, 'country': 'Netherlands'}]</t>
@@ -631,7 +631,7 @@
     <t>[{'id': 752, 'year': 2015, 'country': 'South Korea'}, {'id': 753, 'year': 2013, 'country': 'South Korea'}, {'id': 759, 'year': 2017, 'country': 'South Korea'}, {'id': 760, 'year': 2016, 'country': 'South Korea'}, {'id': 761, 'year': 2014, 'country': 'South Korea'}, {'id': 1121, 'year': 2018, 'country': 'South Korea'}, {'id': 1863, 'year': 2019, 'country': 'South Korea'}, {'id': 4381, 'year': 2020, 'country': 'South Korea'}, {'id': 5504, 'year': 2021, 'country': 'South Korea'}, {'id': 7062, 'year': 2022, 'country': 'South Korea'}, {'id': 8938, 'year': 2023, 'country': 'South Korea'}]</t>
   </si>
   <si>
-    <t>[{'id': 34, 'year': 20162017, 'country': 'Spain'}, {'id': 35, 'year': 20152016, 'country': 'Spain'}, {'id': 36, 'year': 20142015, 'country': 'Spain'}, {'id': 37, 'year': 20132014, 'country': 'Spain'}, {'id': 38, 'year': 20122013, 'country': 'Spain'}, {'id': 171, 'year': 20172018, 'country': 'Spain'}, {'id': 1677, 'year': 20182019, 'country': 'Spain'}, {'id': 2319, 'year': 20192020, 'country': 'Spain'}, {'id': 3631, 'year': 20112012, 'country': 'Spain'}, {'id': 3632, 'year': 20102011, 'country': 'Spain'}, {'id': 3636, 'year': 20092010, 'country': 'Spain'}, {'id': 3637, 'year': 20082009, 'country': 'Spain'}, {'id': 4944, 'year': 20202021, 'country': 'Spain'}, {'id': 6211, 'year': 20212022, 'country': 'Spain'}, {'id': 7665, 'year': 20222023, 'country': 'Spain'}]</t>
+    <t>[{'id': 34, 'year': 20162017, 'country': 'Spain'}, {'id': 35, 'year': 20152016, 'country': 'Spain'}, {'id': 36, 'year': 20142015, 'country': 'Spain'}, {'id': 37, 'year': 20132014, 'country': 'Spain'}, {'id': 38, 'year': 20122013, 'country': 'Spain'}, {'id': 171, 'year': 20172018, 'country': 'Spain'}, {'id': 1677, 'year': 20182019, 'country': 'Spain'}, {'id': 2319, 'year': 20192020, 'country': 'Spain'}, {'id': 3631, 'year': 20112012, 'country': 'Spain'}, {'id': 3632, 'year': 20102011, 'country': 'Spain'}, {'id': 3636, 'year': 20092010, 'country': 'Spain'}, {'id': 3637, 'year': 20082009, 'country': 'Spain'}, {'id': 4944, 'year': 20202021, 'country': 'Spain'}, {'id': 6211, 'year': 20212022, 'country': 'Spain'}, {'id': 7665, 'year': 20222023, 'country': 'Spain'}, {'id': 9662, 'year': 20232024, 'country': 'Spain'}]</t>
   </si>
   <si>
     <t>[{'id': 39, 'year': 20162017, 'country': 'Spain'}, {'id': 40, 'year': 20152016, 'country': 'Spain'}, {'id': 41, 'year': 20142015, 'country': 'Spain'}, {'id': 42, 'year': 20132014, 'country': 'Spain'}, {'id': 43, 'year': 20122013, 'country': 'Spain'}, {'id': 172, 'year': 20172018, 'country': 'Spain'}, {'id': 1670, 'year': 20182019, 'country': 'Spain'}, {'id': 2415, 'year': 20192020, 'country': 'Spain'}, {'id': 4167, 'year': 20112012, 'country': 'Spain'}, {'id': 4245, 'year': 20102011, 'country': 'Spain'}, {'id': 4249, 'year': 20092010, 'country': 'Spain'}, {'id': 4842, 'year': 20202021, 'country': 'Spain'}, {'id': 6120, 'year': 20212022, 'country': 'Spain'}, {'id': 7592, 'year': 20222023, 'country': 'Spain'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -526,7 +526,7 @@
     <t>[{'id': 210, 'year': 20162017, 'country': 'Egypt'}, {'id': 211, 'year': 20152016, 'country': 'Egypt'}, {'id': 212, 'year': 20142015, 'country': 'Egypt'}, {'id': 218, 'year': 20172018, 'country': 'Egypt'}, {'id': 1673, 'year': 20182019, 'country': 'Egypt'}, {'id': 2889, 'year': 20192020, 'country': 'Egypt'}, {'id': 5342, 'year': 20202021, 'country': 'Egypt'}, {'id': 6752, 'year': 20212022, 'country': 'Egypt'}, {'id': 8520, 'year': 20222023, 'country': 'Egypt'}]</t>
   </si>
   <si>
-    <t>[{'id': 22, 'year': 20162017, 'country': 'England'}, {'id': 25, 'year': 20152016, 'country': 'England'}, {'id': 26, 'year': 20142015, 'country': 'England'}, {'id': 27, 'year': 20132014, 'country': 'England'}, {'id': 165, 'year': 20172018, 'country': 'England'}, {'id': 1624, 'year': 20182019, 'country': 'England'}, {'id': 2187, 'year': 20192020, 'country': 'England'}, {'id': 3141, 'year': 20122013, 'country': 'England'}, {'id': 3143, 'year': 20112012, 'country': 'England'}, {'id': 3146, 'year': 20102011, 'country': 'England'}, {'id': 3147, 'year': 20092010, 'country': 'England'}, {'id': 4912, 'year': 20202021, 'country': 'England'}, {'id': 6089, 'year': 20212022, 'country': 'England'}, {'id': 7593, 'year': 20222023, 'country': 'England'}, {'id': 8031, 'year': 20082009, 'country': 'England'}]</t>
+    <t>[{'id': 22, 'year': 20162017, 'country': 'England'}, {'id': 25, 'year': 20152016, 'country': 'England'}, {'id': 26, 'year': 20142015, 'country': 'England'}, {'id': 27, 'year': 20132014, 'country': 'England'}, {'id': 165, 'year': 20172018, 'country': 'England'}, {'id': 1624, 'year': 20182019, 'country': 'England'}, {'id': 2187, 'year': 20192020, 'country': 'England'}, {'id': 3141, 'year': 20122013, 'country': 'England'}, {'id': 3143, 'year': 20112012, 'country': 'England'}, {'id': 3146, 'year': 20102011, 'country': 'England'}, {'id': 3147, 'year': 20092010, 'country': 'England'}, {'id': 4912, 'year': 20202021, 'country': 'England'}, {'id': 6089, 'year': 20212022, 'country': 'England'}, {'id': 7593, 'year': 20222023, 'country': 'England'}, {'id': 8031, 'year': 20082009, 'country': 'England'}, {'id': 9663, 'year': 20232024, 'country': 'England'}]</t>
   </si>
   <si>
     <t>[{'id': 28, 'year': 20162017, 'country': 'England'}, {'id': 29, 'year': 20152016, 'country': 'England'}, {'id': 30, 'year': 20142015, 'country': 'England'}, {'id': 31, 'year': 20132014, 'country': 'England'}, {'id': 166, 'year': 20172018, 'country': 'England'}, {'id': 1564, 'year': 20182019, 'country': 'England'}, {'id': 2191, 'year': 20192020, 'country': 'England'}, {'id': 3950, 'year': 20122013, 'country': 'England'}, {'id': 3951, 'year': 20092010, 'country': 'England'}, {'id': 3952, 'year': 20112012, 'country': 'England'}, {'id': 4845, 'year': 20202021, 'country': 'England'}, {'id': 4923, 'year': 20102011, 'country': 'England'}, {'id': 6017, 'year': 20212022, 'country': 'England'}, {'id': 7570, 'year': 20222023, 'country': 'England'}, {'id': 9582, 'year': 20232024, 'country': 'England'}]</t>
@@ -631,7 +631,7 @@
     <t>[{'id': 752, 'year': 2015, 'country': 'South Korea'}, {'id': 753, 'year': 2013, 'country': 'South Korea'}, {'id': 759, 'year': 2017, 'country': 'South Korea'}, {'id': 760, 'year': 2016, 'country': 'South Korea'}, {'id': 761, 'year': 2014, 'country': 'South Korea'}, {'id': 1121, 'year': 2018, 'country': 'South Korea'}, {'id': 1863, 'year': 2019, 'country': 'South Korea'}, {'id': 4381, 'year': 2020, 'country': 'South Korea'}, {'id': 5504, 'year': 2021, 'country': 'South Korea'}, {'id': 7062, 'year': 2022, 'country': 'South Korea'}, {'id': 8938, 'year': 2023, 'country': 'South Korea'}]</t>
   </si>
   <si>
-    <t>[{'id': 34, 'year': 20162017, 'country': 'Spain'}, {'id': 35, 'year': 20152016, 'country': 'Spain'}, {'id': 36, 'year': 20142015, 'country': 'Spain'}, {'id': 37, 'year': 20132014, 'country': 'Spain'}, {'id': 38, 'year': 20122013, 'country': 'Spain'}, {'id': 171, 'year': 20172018, 'country': 'Spain'}, {'id': 1677, 'year': 20182019, 'country': 'Spain'}, {'id': 2319, 'year': 20192020, 'country': 'Spain'}, {'id': 3631, 'year': 20112012, 'country': 'Spain'}, {'id': 3632, 'year': 20102011, 'country': 'Spain'}, {'id': 3636, 'year': 20092010, 'country': 'Spain'}, {'id': 3637, 'year': 20082009, 'country': 'Spain'}, {'id': 4944, 'year': 20202021, 'country': 'Spain'}, {'id': 6211, 'year': 20212022, 'country': 'Spain'}, {'id': 7665, 'year': 20222023, 'country': 'Spain'}, {'id': 9662, 'year': 20232024, 'country': 'Spain'}]</t>
+    <t>[{'id': 34, 'year': 20162017, 'country': 'Spain'}, {'id': 35, 'year': 20152016, 'country': 'Spain'}, {'id': 36, 'year': 20142015, 'country': 'Spain'}, {'id': 37, 'year': 20132014, 'country': 'Spain'}, {'id': 38, 'year': 20122013, 'country': 'Spain'}, {'id': 171, 'year': 20172018, 'country': 'Spain'}, {'id': 1677, 'year': 20182019, 'country': 'Spain'}, {'id': 2319, 'year': 20192020, 'country': 'Spain'}, {'id': 3631, 'year': 20112012, 'country': 'Spain'}, {'id': 3632, 'year': 20102011, 'country': 'Spain'}, {'id': 3636, 'year': 20092010, 'country': 'Spain'}, {'id': 3637, 'year': 20082009, 'country': 'Spain'}, {'id': 4944, 'year': 20202021, 'country': 'Spain'}, {'id': 6211, 'year': 20212022, 'country': 'Spain'}, {'id': 7665, 'year': 20222023, 'country': 'Spain'}, {'id': 9665, 'year': 20232024, 'country': 'Spain'}]</t>
   </si>
   <si>
     <t>[{'id': 39, 'year': 20162017, 'country': 'Spain'}, {'id': 40, 'year': 20152016, 'country': 'Spain'}, {'id': 41, 'year': 20142015, 'country': 'Spain'}, {'id': 42, 'year': 20132014, 'country': 'Spain'}, {'id': 43, 'year': 20122013, 'country': 'Spain'}, {'id': 172, 'year': 20172018, 'country': 'Spain'}, {'id': 1670, 'year': 20182019, 'country': 'Spain'}, {'id': 2415, 'year': 20192020, 'country': 'Spain'}, {'id': 4167, 'year': 20112012, 'country': 'Spain'}, {'id': 4245, 'year': 20102011, 'country': 'Spain'}, {'id': 4249, 'year': 20092010, 'country': 'Spain'}, {'id': 4842, 'year': 20202021, 'country': 'Spain'}, {'id': 6120, 'year': 20212022, 'country': 'Spain'}, {'id': 7592, 'year': 20222023, 'country': 'Spain'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -544,7 +544,7 @@
     <t>[{'id': 58, 'year': 2017, 'country': 'Finland'}, {'id': 59, 'year': 2016, 'country': 'Finland'}, {'id': 60, 'year': 2014, 'country': 'Finland'}, {'id': 72, 'year': 2015, 'country': 'Finland'}, {'id': 1191, 'year': 2018, 'country': 'Finland'}, {'id': 1874, 'year': 2019, 'country': 'Finland'}, {'id': 3645, 'year': 2020, 'country': 'Finland'}, {'id': 5477, 'year': 2021, 'country': 'Finland'}, {'id': 7120, 'year': 2022, 'country': 'Finland'}, {'id': 8935, 'year': 2023, 'country': 'Finland'}]</t>
   </si>
   <si>
-    <t>[{'id': 65, 'year': 20162017, 'country': 'France'}, {'id': 66, 'year': 20142015, 'country': 'France'}, {'id': 67, 'year': 20132014, 'country': 'France'}, {'id': 75, 'year': 20152016, 'country': 'France'}, {'id': 180, 'year': 20172018, 'country': 'France'}, {'id': 1508, 'year': 20182019, 'country': 'France'}, {'id': 2392, 'year': 20192020, 'country': 'France'}, {'id': 4127, 'year': 20122013, 'country': 'France'}, {'id': 4136, 'year': 20112012, 'country': 'France'}, {'id': 4193, 'year': 20102011, 'country': 'France'}, {'id': 4199, 'year': 20092010, 'country': 'France'}, {'id': 4505, 'year': 20202021, 'country': 'France'}, {'id': 6019, 'year': 20212022, 'country': 'France'}, {'id': 7500, 'year': 20222023, 'country': 'France'}]</t>
+    <t>[{'id': 65, 'year': 20162017, 'country': 'France'}, {'id': 66, 'year': 20142015, 'country': 'France'}, {'id': 67, 'year': 20132014, 'country': 'France'}, {'id': 75, 'year': 20152016, 'country': 'France'}, {'id': 180, 'year': 20172018, 'country': 'France'}, {'id': 1508, 'year': 20182019, 'country': 'France'}, {'id': 2392, 'year': 20192020, 'country': 'France'}, {'id': 4127, 'year': 20122013, 'country': 'France'}, {'id': 4136, 'year': 20112012, 'country': 'France'}, {'id': 4193, 'year': 20102011, 'country': 'France'}, {'id': 4199, 'year': 20092010, 'country': 'France'}, {'id': 4505, 'year': 20202021, 'country': 'France'}, {'id': 6019, 'year': 20212022, 'country': 'France'}, {'id': 7500, 'year': 20222023, 'country': 'France'}, {'id': 9674, 'year': 20232024, 'country': 'France'}]</t>
   </si>
   <si>
     <t>[{'id': 73, 'year': 20162017, 'country': 'France'}, {'id': 74, 'year': 20152016, 'country': 'France'}, {'id': 76, 'year': 20142015, 'country': 'France'}, {'id': 181, 'year': 20172018, 'country': 'France'}, {'id': 1579, 'year': 20182019, 'country': 'France'}, {'id': 2396, 'year': 20192020, 'country': 'France'}, {'id': 4164, 'year': 20132014, 'country': 'France'}, {'id': 4185, 'year': 20122013, 'country': 'France'}, {'id': 4645, 'year': 20202021, 'country': 'France'}, {'id': 6018, 'year': 20212022, 'country': 'France'}, {'id': 7501, 'year': 20222023, 'country': 'France'}, {'id': 9621, 'year': 20232024, 'country': 'France'}]</t>
@@ -619,7 +619,7 @@
     <t>[{'id': 416, 'year': 20172018, 'country': 'Serbia'}, {'id': 417, 'year': 20162017, 'country': 'Serbia'}, {'id': 418, 'year': 20152016, 'country': 'Serbia'}, {'id': 419, 'year': 20142015, 'country': 'Serbia'}, {'id': 420, 'year': 20132014, 'country': 'Serbia'}, {'id': 1604, 'year': 20182019, 'country': 'Serbia'}, {'id': 2254, 'year': 20192020, 'country': 'Serbia'}, {'id': 4533, 'year': 20202021, 'country': 'Serbia'}, {'id': 6046, 'year': 20212022, 'country': 'Serbia'}, {'id': 7492, 'year': 20222023, 'country': 'Serbia'}]</t>
   </si>
   <si>
-    <t>[{'id': 439, 'year': 20152016, 'country': 'Slovakia'}, {'id': 440, 'year': 20142015, 'country': 'Slovakia'}, {'id': 441, 'year': 20132014, 'country': 'Slovakia'}, {'id': 447, 'year': 20172018, 'country': 'Slovakia'}, {'id': 448, 'year': 20162017, 'country': 'Slovakia'}, {'id': 1606, 'year': 20182019, 'country': 'Slovakia'}, {'id': 2256, 'year': 20192020, 'country': 'Slovakia'}, {'id': 4572, 'year': 20202021, 'country': 'Slovakia'}, {'id': 5944, 'year': 20212022, 'country': 'Slovakia'}, {'id': 7958, 'year': 20222023, 'country': 'Slovakia'}]</t>
+    <t>[{'id': 439, 'year': 20152016, 'country': 'Slovakia'}, {'id': 440, 'year': 20142015, 'country': 'Slovakia'}, {'id': 441, 'year': 20132014, 'country': 'Slovakia'}, {'id': 447, 'year': 20172018, 'country': 'Slovakia'}, {'id': 448, 'year': 20162017, 'country': 'Slovakia'}, {'id': 1606, 'year': 20182019, 'country': 'Slovakia'}, {'id': 2256, 'year': 20192020, 'country': 'Slovakia'}, {'id': 4572, 'year': 20202021, 'country': 'Slovakia'}, {'id': 5944, 'year': 20212022, 'country': 'Slovakia'}, {'id': 7958, 'year': 20222023, 'country': 'Slovakia'}, {'id': 9671, 'year': 20232024, 'country': 'Slovakia'}]</t>
   </si>
   <si>
     <t>[{'id': 426, 'year': 20172018, 'country': 'Slovenia'}, {'id': 427, 'year': 20162017, 'country': 'Slovenia'}, {'id': 428, 'year': 20152016, 'country': 'Slovenia'}, {'id': 429, 'year': 20142015, 'country': 'Slovenia'}, {'id': 433, 'year': 20132014, 'country': 'Slovenia'}, {'id': 1608, 'year': 20182019, 'country': 'Slovenia'}, {'id': 2251, 'year': 20192020, 'country': 'Slovenia'}, {'id': 4635, 'year': 20202021, 'country': 'Slovenia'}, {'id': 6048, 'year': 20212022, 'country': 'Slovenia'}, {'id': 7526, 'year': 20222023, 'country': 'Slovenia'}, {'id': 9579, 'year': 20232024, 'country': 'Slovenia'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -634,7 +634,7 @@
     <t>[{'id': 34, 'year': 20162017, 'country': 'Spain'}, {'id': 35, 'year': 20152016, 'country': 'Spain'}, {'id': 36, 'year': 20142015, 'country': 'Spain'}, {'id': 37, 'year': 20132014, 'country': 'Spain'}, {'id': 38, 'year': 20122013, 'country': 'Spain'}, {'id': 171, 'year': 20172018, 'country': 'Spain'}, {'id': 1677, 'year': 20182019, 'country': 'Spain'}, {'id': 2319, 'year': 20192020, 'country': 'Spain'}, {'id': 3631, 'year': 20112012, 'country': 'Spain'}, {'id': 3632, 'year': 20102011, 'country': 'Spain'}, {'id': 3636, 'year': 20092010, 'country': 'Spain'}, {'id': 3637, 'year': 20082009, 'country': 'Spain'}, {'id': 4944, 'year': 20202021, 'country': 'Spain'}, {'id': 6211, 'year': 20212022, 'country': 'Spain'}, {'id': 7665, 'year': 20222023, 'country': 'Spain'}, {'id': 9665, 'year': 20232024, 'country': 'Spain'}]</t>
   </si>
   <si>
-    <t>[{'id': 39, 'year': 20162017, 'country': 'Spain'}, {'id': 40, 'year': 20152016, 'country': 'Spain'}, {'id': 41, 'year': 20142015, 'country': 'Spain'}, {'id': 42, 'year': 20132014, 'country': 'Spain'}, {'id': 43, 'year': 20122013, 'country': 'Spain'}, {'id': 172, 'year': 20172018, 'country': 'Spain'}, {'id': 1670, 'year': 20182019, 'country': 'Spain'}, {'id': 2415, 'year': 20192020, 'country': 'Spain'}, {'id': 4167, 'year': 20112012, 'country': 'Spain'}, {'id': 4245, 'year': 20102011, 'country': 'Spain'}, {'id': 4249, 'year': 20092010, 'country': 'Spain'}, {'id': 4842, 'year': 20202021, 'country': 'Spain'}, {'id': 6120, 'year': 20212022, 'country': 'Spain'}, {'id': 7592, 'year': 20222023, 'country': 'Spain'}]</t>
+    <t>[{'id': 39, 'year': 20162017, 'country': 'Spain'}, {'id': 40, 'year': 20152016, 'country': 'Spain'}, {'id': 41, 'year': 20142015, 'country': 'Spain'}, {'id': 42, 'year': 20132014, 'country': 'Spain'}, {'id': 43, 'year': 20122013, 'country': 'Spain'}, {'id': 172, 'year': 20172018, 'country': 'Spain'}, {'id': 1670, 'year': 20182019, 'country': 'Spain'}, {'id': 2415, 'year': 20192020, 'country': 'Spain'}, {'id': 4167, 'year': 20112012, 'country': 'Spain'}, {'id': 4245, 'year': 20102011, 'country': 'Spain'}, {'id': 4249, 'year': 20092010, 'country': 'Spain'}, {'id': 4842, 'year': 20202021, 'country': 'Spain'}, {'id': 6120, 'year': 20212022, 'country': 'Spain'}, {'id': 7592, 'year': 20222023, 'country': 'Spain'}, {'id': 9675, 'year': 20232024, 'country': 'Spain'}]</t>
   </si>
   <si>
     <t>[{'id': 104, 'year': 2017, 'country': 'Sweden'}, {'id': 105, 'year': 2016, 'country': 'Sweden'}, {'id': 106, 'year': 2015, 'country': 'Sweden'}, {'id': 107, 'year': 2014, 'country': 'Sweden'}, {'id': 994, 'year': 2018, 'country': 'Sweden'}, {'id': 1848, 'year': 2019, 'country': 'Sweden'}, {'id': 3703, 'year': 2020, 'country': 'Sweden'}, {'id': 4307, 'year': 2013, 'country': 'Sweden'}, {'id': 4315, 'year': 2011, 'country': 'Sweden'}, {'id': 4329, 'year': 2010, 'country': 'Sweden'}, {'id': 5505, 'year': 2021, 'country': 'Sweden'}, {'id': 7064, 'year': 2022, 'country': 'Sweden'}, {'id': 8737, 'year': 2023, 'country': 'Sweden'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -562,7 +562,7 @@
     <t>[{'id': 726, 'year': 20162017, 'country': 'Hungary'}, {'id': 727, 'year': 20152016, 'country': 'Hungary'}, {'id': 728, 'year': 20132014, 'country': 'Hungary'}, {'id': 730, 'year': 20172018, 'country': 'Hungary'}, {'id': 731, 'year': 20142015, 'country': 'Hungary'}, {'id': 1566, 'year': 20182019, 'country': 'Hungary'}, {'id': 2282, 'year': 20192020, 'country': 'Hungary'}, {'id': 4534, 'year': 20202021, 'country': 'Hungary'}, {'id': 5936, 'year': 20212022, 'country': 'Hungary'}, {'id': 7967, 'year': 20222023, 'country': 'Hungary'}]</t>
   </si>
   <si>
-    <t>[{'id': 68, 'year': 20162017, 'country': 'Italy'}, {'id': 69, 'year': 20152016, 'country': 'Italy'}, {'id': 70, 'year': 20142015, 'country': 'Italy'}, {'id': 71, 'year': 20132014, 'country': 'Italy'}, {'id': 182, 'year': 20172018, 'country': 'Italy'}, {'id': 1680, 'year': 20182019, 'country': 'Italy'}, {'id': 2588, 'year': 20192020, 'country': 'Italy'}, {'id': 3940, 'year': 20112012, 'country': 'Italy'}, {'id': 3941, 'year': 20082009, 'country': 'Italy'}, {'id': 3942, 'year': 20092010, 'country': 'Italy'}, {'id': 3945, 'year': 20122013, 'country': 'Italy'}, {'id': 4889, 'year': 20202021, 'country': 'Italy'}, {'id': 6198, 'year': 20212022, 'country': 'Italy'}, {'id': 7608, 'year': 20222023, 'country': 'Italy'}]</t>
+    <t>[{'id': 68, 'year': 20162017, 'country': 'Italy'}, {'id': 69, 'year': 20152016, 'country': 'Italy'}, {'id': 70, 'year': 20142015, 'country': 'Italy'}, {'id': 71, 'year': 20132014, 'country': 'Italy'}, {'id': 182, 'year': 20172018, 'country': 'Italy'}, {'id': 1680, 'year': 20182019, 'country': 'Italy'}, {'id': 2588, 'year': 20192020, 'country': 'Italy'}, {'id': 3940, 'year': 20112012, 'country': 'Italy'}, {'id': 3941, 'year': 20082009, 'country': 'Italy'}, {'id': 3942, 'year': 20092010, 'country': 'Italy'}, {'id': 3945, 'year': 20122013, 'country': 'Italy'}, {'id': 4889, 'year': 20202021, 'country': 'Italy'}, {'id': 6198, 'year': 20212022, 'country': 'Italy'}, {'id': 7608, 'year': 20222023, 'country': 'Italy'}, {'id': 9697, 'year': 20232024, 'country': 'Italy'}]</t>
   </si>
   <si>
     <t>[{'id': 77, 'year': 20162017, 'country': 'Italy'}, {'id': 78, 'year': 20152016, 'country': 'Italy'}, {'id': 79, 'year': 20142015, 'country': 'Italy'}, {'id': 80, 'year': 20132014, 'country': 'Italy'}, {'id': 81, 'year': 20122013, 'country': 'Italy'}, {'id': 183, 'year': 20172018, 'country': 'Italy'}, {'id': 1749, 'year': 20182019, 'country': 'Italy'}, {'id': 2642, 'year': 20192020, 'country': 'Italy'}, {'id': 3946, 'year': 20092010, 'country': 'Italy'}, {'id': 3948, 'year': 20102011, 'country': 'Italy'}, {'id': 3949, 'year': 20112012, 'country': 'Italy'}, {'id': 4972, 'year': 20202021, 'country': 'Italy'}, {'id': 6205, 'year': 20212022, 'country': 'Italy'}, {'id': 7864, 'year': 20222023, 'country': 'Italy'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -535,7 +535,7 @@
     <t>[{'id': 32, 'year': 20162017, 'country': 'England'}, {'id': 33, 'year': 20152016, 'country': 'England'}, {'id': 170, 'year': 20172018, 'country': 'England'}, {'id': 1574, 'year': 20182019, 'country': 'England'}, {'id': 2192, 'year': 20192020, 'country': 'England'}, {'id': 4844, 'year': 20202021, 'country': 'England'}, {'id': 6015, 'year': 20212022, 'country': 'England'}, {'id': 7574, 'year': 20222023, 'country': 'England'}, {'id': 9581, 'year': 20232024, 'country': 'England'}]</t>
   </si>
   <si>
-    <t>[{'id': 392, 'year': 20172018, 'country': 'England'}, {'id': 393, 'year': 20162017, 'country': 'England'}, {'id': 394, 'year': 20152016, 'country': 'England'}, {'id': 395, 'year': 20142015, 'country': 'England'}, {'id': 396, 'year': 20132014, 'country': 'England'}, {'id': 1576, 'year': 20182019, 'country': 'England'}, {'id': 2287, 'year': 20192020, 'country': 'England'}, {'id': 4124, 'year': 20122013, 'country': 'England'}, {'id': 4154, 'year': 20112012, 'country': 'England'}, {'id': 5018, 'year': 20202021, 'country': 'England'}, {'id': 6088, 'year': 20212022, 'country': 'England'}, {'id': 7729, 'year': 20222023, 'country': 'England'}]</t>
+    <t>[{'id': 392, 'year': 20172018, 'country': 'England'}, {'id': 393, 'year': 20162017, 'country': 'England'}, {'id': 394, 'year': 20152016, 'country': 'England'}, {'id': 395, 'year': 20142015, 'country': 'England'}, {'id': 396, 'year': 20132014, 'country': 'England'}, {'id': 1576, 'year': 20182019, 'country': 'England'}, {'id': 2287, 'year': 20192020, 'country': 'England'}, {'id': 4124, 'year': 20122013, 'country': 'England'}, {'id': 4154, 'year': 20112012, 'country': 'England'}, {'id': 5018, 'year': 20202021, 'country': 'England'}, {'id': 6088, 'year': 20212022, 'country': 'England'}, {'id': 7729, 'year': 20222023, 'country': 'England'}, {'id': 9700, 'year': 20232024, 'country': 'England'}]</t>
   </si>
   <si>
     <t>[{'id': 9, 'year': 20162017, 'country': 'England'}, {'id': 10, 'year': 20152016, 'country': 'England'}, {'id': 11, 'year': 20142015, 'country': 'England'}, {'id': 12, 'year': 20132014, 'country': 'England'}, {'id': 161, 'year': 20172018, 'country': 'England'}, {'id': 246, 'year': 20122013, 'country': 'England'}, {'id': 1625, 'year': 20182019, 'country': 'England'}, {'id': 2012, 'year': 20192020, 'country': 'England'}, {'id': 3119, 'year': 20112012, 'country': 'England'}, {'id': 3121, 'year': 20102011, 'country': 'England'}, {'id': 3125, 'year': 20092010, 'country': 'England'}, {'id': 3131, 'year': 20082009, 'country': 'England'}, {'id': 3137, 'year': 20072008, 'country': 'England'}, {'id': 4759, 'year': 20202021, 'country': 'England'}, {'id': 6135, 'year': 20212022, 'country': 'England'}, {'id': 7704, 'year': 20222023, 'country': 'England'}, {'id': 9660, 'year': 20232024, 'country': 'England'}]</t>
@@ -574,7 +574,7 @@
     <t>[{'id': 130, 'year': 2016, 'country': 'Japan'}, {'id': 131, 'year': 2015, 'country': 'Japan'}, {'id': 132, 'year': 2014, 'country': 'Japan'}, {'id': 153, 'year': 2017, 'country': 'Japan'}, {'id': 1073, 'year': 2018, 'country': 'Japan'}, {'id': 1865, 'year': 2019, 'country': 'Japan'}, {'id': 3684, 'year': 2020, 'country': 'Japan'}, {'id': 5495, 'year': 2021, 'country': 'Japan'}, {'id': 6936, 'year': 2022, 'country': 'Japan'}, {'id': 8811, 'year': 2023, 'country': 'Japan'}]</t>
   </si>
   <si>
-    <t>[{'id': 313, 'year': 20172018, 'country': 'Mexico'}, {'id': 314, 'year': 20162017, 'country': 'Mexico'}, {'id': 315, 'year': 20152016, 'country': 'Mexico'}, {'id': 316, 'year': 20142015, 'country': 'Mexico'}, {'id': 317, 'year': 20132014, 'country': 'Mexico'}, {'id': 1583, 'year': 20182019, 'country': 'Mexico'}, {'id': 2315, 'year': 20192020, 'country': 'Mexico'}, {'id': 4664, 'year': 20202021, 'country': 'Mexico'}, {'id': 6104, 'year': 20212022, 'country': 'Mexico'}, {'id': 7489, 'year': 20222023, 'country': 'Mexico'}]</t>
+    <t>[{'id': 313, 'year': 20172018, 'country': 'Mexico'}, {'id': 314, 'year': 20162017, 'country': 'Mexico'}, {'id': 315, 'year': 20152016, 'country': 'Mexico'}, {'id': 316, 'year': 20142015, 'country': 'Mexico'}, {'id': 317, 'year': 20132014, 'country': 'Mexico'}, {'id': 1583, 'year': 20182019, 'country': 'Mexico'}, {'id': 2315, 'year': 20192020, 'country': 'Mexico'}, {'id': 4664, 'year': 20202021, 'country': 'Mexico'}, {'id': 6104, 'year': 20212022, 'country': 'Mexico'}, {'id': 7489, 'year': 20222023, 'country': 'Mexico'}, {'id': 9701, 'year': 20232024, 'country': 'Mexico'}]</t>
   </si>
   <si>
     <t>[{'id': 307, 'year': 20172018, 'country': 'Mexico'}, {'id': 308, 'year': 20162017, 'country': 'Mexico'}, {'id': 309, 'year': 20152016, 'country': 'Mexico'}, {'id': 310, 'year': 20142015, 'country': 'Mexico'}, {'id': 311, 'year': 20132014, 'country': 'Mexico'}, {'id': 312, 'year': 20122013, 'country': 'Mexico'}, {'id': 1582, 'year': 20182019, 'country': 'Mexico'}, {'id': 2270, 'year': 20192020, 'country': 'Mexico'}, {'id': 4507, 'year': 20202021, 'country': 'Mexico'}, {'id': 6038, 'year': 20212022, 'country': 'Mexico'}, {'id': 7425, 'year': 20222023, 'country': 'Mexico'}, {'id': 9525, 'year': 20232024, 'country': 'Mexico'}]</t>
@@ -655,7 +655,7 @@
     <t>[{'id': 1290, 'year': 2018, 'country': 'USA'}, {'id': 1291, 'year': 2017, 'country': 'USA'}, {'id': 1292, 'year': 2016, 'country': 'USA'}, {'id': 1857, 'year': 2019, 'country': 'USA'}, {'id': 3710, 'year': 2020, 'country': 'USA'}, {'id': 4279, 'year': 2015, 'country': 'USA'}, {'id': 4283, 'year': 2014, 'country': 'USA'}, {'id': 4288, 'year': 2013, 'country': 'USA'}, {'id': 6541, 'year': 2021, 'country': 'USA'}, {'id': 6970, 'year': 2022, 'country': 'USA'}, {'id': 8845, 'year': 2023, 'country': 'USA'}]</t>
   </si>
   <si>
-    <t>[{'id': 360, 'year': 20172018, 'country': 'Ukraine'}, {'id': 361, 'year': 20162017, 'country': 'Ukraine'}, {'id': 362, 'year': 20152016, 'country': 'Ukraine'}, {'id': 363, 'year': 20142015, 'country': 'Ukraine'}, {'id': 364, 'year': 20132014, 'country': 'Ukraine'}, {'id': 1618, 'year': 20182019, 'country': 'Ukraine'}, {'id': 2317, 'year': 20192020, 'country': 'Ukraine'}, {'id': 4751, 'year': 20202021, 'country': 'Ukraine'}, {'id': 5943, 'year': 20212022, 'country': 'Ukraine'}, {'id': 8222, 'year': 20222023, 'country': 'Ukraine'}]</t>
+    <t>[{'id': 360, 'year': 20172018, 'country': 'Ukraine'}, {'id': 361, 'year': 20162017, 'country': 'Ukraine'}, {'id': 362, 'year': 20152016, 'country': 'Ukraine'}, {'id': 363, 'year': 20142015, 'country': 'Ukraine'}, {'id': 364, 'year': 20132014, 'country': 'Ukraine'}, {'id': 1618, 'year': 20182019, 'country': 'Ukraine'}, {'id': 2317, 'year': 20192020, 'country': 'Ukraine'}, {'id': 4751, 'year': 20202021, 'country': 'Ukraine'}, {'id': 5943, 'year': 20212022, 'country': 'Ukraine'}, {'id': 8222, 'year': 20222023, 'country': 'Ukraine'}, {'id': 9699, 'year': 20232024, 'country': 'Ukraine'}]</t>
   </si>
   <si>
     <t>[{'id': 853, 'year': 2017, 'country': 'Uruguay'}, {'id': 854, 'year': 2016, 'country': 'Uruguay'}, {'id': 855, 'year': 20152016, 'country': 'Uruguay'}, {'id': 856, 'year': 20142015, 'country': 'Uruguay'}, {'id': 857, 'year': 20132014, 'country': 'Uruguay'}, {'id': 1095, 'year': 2018, 'country': 'Uruguay'}, {'id': 1905, 'year': 2019, 'country': 'Uruguay'}, {'id': 3789, 'year': 2020, 'country': 'Uruguay'}, {'id': 5809, 'year': 2021, 'country': 'Uruguay'}, {'id': 7067, 'year': 2022, 'country': 'Uruguay'}, {'id': 8937, 'year': 2023, 'country': 'Uruguay'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -604,7 +604,7 @@
     <t>[{'id': 13, 'year': 20162017, 'country': 'Portugal'}, {'id': 14, 'year': 20152016, 'country': 'Portugal'}, {'id': 17, 'year': 20142015, 'country': 'Portugal'}, {'id': 18, 'year': 20132014, 'country': 'Portugal'}, {'id': 173, 'year': 20172018, 'country': 'Portugal'}, {'id': 1593, 'year': 20182019, 'country': 'Portugal'}, {'id': 2321, 'year': 20192020, 'country': 'Portugal'}, {'id': 4225, 'year': 20122013, 'country': 'Portugal'}, {'id': 4232, 'year': 20112012, 'country': 'Portugal'}, {'id': 4238, 'year': 20102011, 'country': 'Portugal'}, {'id': 4885, 'year': 20202021, 'country': 'Portugal'}, {'id': 6117, 'year': 20212022, 'country': 'Portugal'}, {'id': 7731, 'year': 20222023, 'country': 'Portugal'}]</t>
   </si>
   <si>
-    <t>[{'id': 174, 'year': 20172018, 'country': 'Portugal'}, {'id': 965, 'year': 20162017, 'country': 'Portugal'}, {'id': 966, 'year': 20152016, 'country': 'Portugal'}, {'id': 1594, 'year': 20182019, 'country': 'Portugal'}, {'id': 2320, 'year': 20192020, 'country': 'Portugal'}, {'id': 4284, 'year': 20142015, 'country': 'Portugal'}, {'id': 4291, 'year': 20122013, 'country': 'Portugal'}, {'id': 4309, 'year': 20102011, 'country': 'Portugal'}, {'id': 4322, 'year': 20092010, 'country': 'Portugal'}, {'id': 4886, 'year': 20202021, 'country': 'Portugal'}, {'id': 6116, 'year': 20212022, 'country': 'Portugal'}, {'id': 7732, 'year': 20222023, 'country': 'Portugal'}]</t>
+    <t>[{'id': 174, 'year': 20172018, 'country': 'Portugal'}, {'id': 965, 'year': 20162017, 'country': 'Portugal'}, {'id': 966, 'year': 20152016, 'country': 'Portugal'}, {'id': 1594, 'year': 20182019, 'country': 'Portugal'}, {'id': 2320, 'year': 20192020, 'country': 'Portugal'}, {'id': 4284, 'year': 20142015, 'country': 'Portugal'}, {'id': 4291, 'year': 20122013, 'country': 'Portugal'}, {'id': 4309, 'year': 20102011, 'country': 'Portugal'}, {'id': 4322, 'year': 20092010, 'country': 'Portugal'}, {'id': 4886, 'year': 20202021, 'country': 'Portugal'}, {'id': 6116, 'year': 20212022, 'country': 'Portugal'}, {'id': 7732, 'year': 20222023, 'country': 'Portugal'}, {'id': 9704, 'year': 20232024, 'country': 'Portugal'}]</t>
   </si>
   <si>
     <t>[{'id': 449, 'year': 2017, 'country': 'Republic of Ireland'}, {'id': 450, 'year': 2016, 'country': 'Republic of Ireland'}, {'id': 451, 'year': 2015, 'country': 'Republic of Ireland'}, {'id': 452, 'year': 2014, 'country': 'Republic of Ireland'}, {'id': 453, 'year': 2013, 'country': 'Republic of Ireland'}, {'id': 990, 'year': 2018, 'country': 'Republic of Ireland'}, {'id': 1844, 'year': 2019, 'country': 'Republic of Ireland'}, {'id': 3570, 'year': 2020, 'country': 'Republic of Ireland'}, {'id': 5534, 'year': 2021, 'country': 'Republic of Ireland'}, {'id': 6967, 'year': 2022, 'country': 'Republic of Ireland'}, {'id': 8741, 'year': 2023, 'country': 'Republic of Ireland'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -586,7 +586,7 @@
     <t>[{'id': 51, 'year': 20162017, 'country': 'Netherlands'}, {'id': 52, 'year': 20152016, 'country': 'Netherlands'}, {'id': 53, 'year': 20142015, 'country': 'Netherlands'}, {'id': 54, 'year': 20132014, 'country': 'Netherlands'}, {'id': 178, 'year': 20172018, 'country': 'Netherlands'}, {'id': 1585, 'year': 20182019, 'country': 'Netherlands'}, {'id': 2272, 'year': 20192020, 'country': 'Netherlands'}, {'id': 4226, 'year': 20122013, 'country': 'Netherlands'}, {'id': 4234, 'year': 20112012, 'country': 'Netherlands'}, {'id': 4746, 'year': 20202021, 'country': 'Netherlands'}, {'id': 5951, 'year': 20212022, 'country': 'Netherlands'}, {'id': 7482, 'year': 20222023, 'country': 'Netherlands'}, {'id': 9653, 'year': 20232024, 'country': 'Netherlands'}]</t>
   </si>
   <si>
-    <t>[{'id': 1366, 'year': 20172018, 'country': 'Netherlands'}, {'id': 1367, 'year': 20162017, 'country': 'Netherlands'}, {'id': 1586, 'year': 20182019, 'country': 'Netherlands'}, {'id': 2275, 'year': 20192020, 'country': 'Netherlands'}, {'id': 4749, 'year': 20202021, 'country': 'Netherlands'}, {'id': 6098, 'year': 20212022, 'country': 'Netherlands'}, {'id': 7702, 'year': 20222023, 'country': 'Netherlands'}]</t>
+    <t>[{'id': 1366, 'year': 20172018, 'country': 'Netherlands'}, {'id': 1367, 'year': 20162017, 'country': 'Netherlands'}, {'id': 1586, 'year': 20182019, 'country': 'Netherlands'}, {'id': 2275, 'year': 20192020, 'country': 'Netherlands'}, {'id': 4749, 'year': 20202021, 'country': 'Netherlands'}, {'id': 6098, 'year': 20212022, 'country': 'Netherlands'}, {'id': 7702, 'year': 20222023, 'country': 'Netherlands'}, {'id': 9743, 'year': 20232024, 'country': 'Netherlands'}]</t>
   </si>
   <si>
     <t>[{'id': 44, 'year': 2016, 'country': 'Norway'}, {'id': 45, 'year': 2015, 'country': 'Norway'}, {'id': 46, 'year': 2017, 'country': 'Norway'}, {'id': 993, 'year': 2018, 'country': 'Norway'}, {'id': 1839, 'year': 2019, 'country': 'Norway'}, {'id': 3695, 'year': 2020, 'country': 'Norway'}, {'id': 4224, 'year': 2014, 'country': 'Norway'}, {'id': 4231, 'year': 2013, 'country': 'Norway'}, {'id': 4237, 'year': 2012, 'country': 'Norway'}, {'id': 4242, 'year': 2011, 'country': 'Norway'}, {'id': 4244, 'year': 2010, 'country': 'Norway'}, {'id': 5496, 'year': 2021, 'country': 'Norway'}, {'id': 7048, 'year': 2022, 'country': 'Norway'}, {'id': 8739, 'year': 2023, 'country': 'Norway'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -565,7 +565,7 @@
     <t>[{'id': 68, 'year': 20162017, 'country': 'Italy'}, {'id': 69, 'year': 20152016, 'country': 'Italy'}, {'id': 70, 'year': 20142015, 'country': 'Italy'}, {'id': 71, 'year': 20132014, 'country': 'Italy'}, {'id': 182, 'year': 20172018, 'country': 'Italy'}, {'id': 1680, 'year': 20182019, 'country': 'Italy'}, {'id': 2588, 'year': 20192020, 'country': 'Italy'}, {'id': 3940, 'year': 20112012, 'country': 'Italy'}, {'id': 3941, 'year': 20082009, 'country': 'Italy'}, {'id': 3942, 'year': 20092010, 'country': 'Italy'}, {'id': 3945, 'year': 20122013, 'country': 'Italy'}, {'id': 4889, 'year': 20202021, 'country': 'Italy'}, {'id': 6198, 'year': 20212022, 'country': 'Italy'}, {'id': 7608, 'year': 20222023, 'country': 'Italy'}, {'id': 9697, 'year': 20232024, 'country': 'Italy'}]</t>
   </si>
   <si>
-    <t>[{'id': 77, 'year': 20162017, 'country': 'Italy'}, {'id': 78, 'year': 20152016, 'country': 'Italy'}, {'id': 79, 'year': 20142015, 'country': 'Italy'}, {'id': 80, 'year': 20132014, 'country': 'Italy'}, {'id': 81, 'year': 20122013, 'country': 'Italy'}, {'id': 183, 'year': 20172018, 'country': 'Italy'}, {'id': 1749, 'year': 20182019, 'country': 'Italy'}, {'id': 2642, 'year': 20192020, 'country': 'Italy'}, {'id': 3946, 'year': 20092010, 'country': 'Italy'}, {'id': 3948, 'year': 20102011, 'country': 'Italy'}, {'id': 3949, 'year': 20112012, 'country': 'Italy'}, {'id': 4972, 'year': 20202021, 'country': 'Italy'}, {'id': 6205, 'year': 20212022, 'country': 'Italy'}, {'id': 7864, 'year': 20222023, 'country': 'Italy'}]</t>
+    <t>[{'id': 77, 'year': 20162017, 'country': 'Italy'}, {'id': 78, 'year': 20152016, 'country': 'Italy'}, {'id': 79, 'year': 20142015, 'country': 'Italy'}, {'id': 80, 'year': 20132014, 'country': 'Italy'}, {'id': 81, 'year': 20122013, 'country': 'Italy'}, {'id': 183, 'year': 20172018, 'country': 'Italy'}, {'id': 1749, 'year': 20182019, 'country': 'Italy'}, {'id': 2642, 'year': 20192020, 'country': 'Italy'}, {'id': 3946, 'year': 20092010, 'country': 'Italy'}, {'id': 3948, 'year': 20102011, 'country': 'Italy'}, {'id': 3949, 'year': 20112012, 'country': 'Italy'}, {'id': 4972, 'year': 20202021, 'country': 'Italy'}, {'id': 6205, 'year': 20212022, 'country': 'Italy'}, {'id': 7864, 'year': 20222023, 'country': 'Italy'}, {'id': 9808, 'year': 20232024, 'country': 'Italy'}]</t>
   </si>
   <si>
     <t>[{'id': 162, 'year': 2017, 'country': 'Japan'}, {'id': 250, 'year': 2016, 'country': 'Japan'}, {'id': 251, 'year': 2015, 'country': 'Japan'}, {'id': 252, 'year': 2014, 'country': 'Japan'}, {'id': 253, 'year': 2013, 'country': 'Japan'}, {'id': 254, 'year': 2012, 'country': 'Japan'}, {'id': 1071, 'year': 2018, 'country': 'Japan'}, {'id': 1864, 'year': 2019, 'country': 'Japan'}, {'id': 3686, 'year': 2020, 'country': 'Japan'}, {'id': 5434, 'year': 2021, 'country': 'Japan'}, {'id': 6935, 'year': 2022, 'country': 'Japan'}, {'id': 8810, 'year': 2023, 'country': 'Japan'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -556,7 +556,7 @@
     <t>[{'id': 3, 'year': 20162017, 'country': 'Germany'}, {'id': 4, 'year': 20152016, 'country': 'Germany'}, {'id': 5, 'year': 20142015, 'country': 'Germany'}, {'id': 7, 'year': 20132014, 'country': 'Germany'}, {'id': 177, 'year': 20172018, 'country': 'Germany'}, {'id': 1636, 'year': 20182019, 'country': 'Germany'}, {'id': 4105, 'year': 20122013, 'country': 'Germany'}, {'id': 4123, 'year': 20112012, 'country': 'Germany'}, {'id': 4133, 'year': 20102011, 'country': 'Germany'}, {'id': 4140, 'year': 20092010, 'country': 'Germany'}, {'id': 4392, 'year': 20192020, 'country': 'Germany'}, {'id': 4624, 'year': 20082009, 'country': 'Germany'}, {'id': 4628, 'year': 20072008, 'country': 'Germany'}, {'id': 4629, 'year': 20062007, 'country': 'Germany'}, {'id': 4673, 'year': 20202021, 'country': 'Germany'}, {'id': 6192, 'year': 20212022, 'country': 'Germany'}, {'id': 7664, 'year': 20222023, 'country': 'Germany'}, {'id': 9655, 'year': 20232024, 'country': 'Germany'}]</t>
   </si>
   <si>
-    <t>[{'id': 207, 'year': 20172018, 'country': 'Greece'}, {'id': 208, 'year': 20162017, 'country': 'Greece'}, {'id': 209, 'year': 20152016, 'country': 'Greece'}, {'id': 933, 'year': 20142015, 'country': 'Greece'}, {'id': 934, 'year': 20132014, 'country': 'Greece'}, {'id': 1752, 'year': 20182019, 'country': 'Greece'}, {'id': 2667, 'year': 20192020, 'country': 'Greece'}, {'id': 4957, 'year': 20202021, 'country': 'Greece'}, {'id': 6282, 'year': 20212022, 'country': 'Greece'}, {'id': 7954, 'year': 20222023, 'country': 'Greece'}]</t>
+    <t>[{'id': 207, 'year': 20172018, 'country': 'Greece'}, {'id': 208, 'year': 20162017, 'country': 'Greece'}, {'id': 209, 'year': 20152016, 'country': 'Greece'}, {'id': 933, 'year': 20142015, 'country': 'Greece'}, {'id': 934, 'year': 20132014, 'country': 'Greece'}, {'id': 1752, 'year': 20182019, 'country': 'Greece'}, {'id': 2667, 'year': 20192020, 'country': 'Greece'}, {'id': 4957, 'year': 20202021, 'country': 'Greece'}, {'id': 6282, 'year': 20212022, 'country': 'Greece'}, {'id': 7954, 'year': 20222023, 'country': 'Greece'}, {'id': 9889, 'year': 20232024, 'country': 'Greece'}]</t>
   </si>
   <si>
     <t>[{'id': 726, 'year': 20162017, 'country': 'Hungary'}, {'id': 727, 'year': 20152016, 'country': 'Hungary'}, {'id': 728, 'year': 20132014, 'country': 'Hungary'}, {'id': 730, 'year': 20172018, 'country': 'Hungary'}, {'id': 731, 'year': 20142015, 'country': 'Hungary'}, {'id': 1566, 'year': 20182019, 'country': 'Hungary'}, {'id': 2282, 'year': 20192020, 'country': 'Hungary'}, {'id': 4534, 'year': 20202021, 'country': 'Hungary'}, {'id': 5936, 'year': 20212022, 'country': 'Hungary'}, {'id': 7967, 'year': 20222023, 'country': 'Hungary'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -646,7 +646,7 @@
     <t>[{'id': 798, 'year': 20172018, 'country': 'Tunisia'}, {'id': 799, 'year': 20162017, 'country': 'Tunisia'}, {'id': 800, 'year': 20152016, 'country': 'Tunisia'}, {'id': 801, 'year': 20142015, 'country': 'Tunisia'}, {'id': 802, 'year': 20132014, 'country': 'Tunisia'}, {'id': 1644, 'year': 20182019, 'country': 'Tunisia'}, {'id': 2650, 'year': 20192020, 'country': 'Tunisia'}, {'id': 5257, 'year': 20202021, 'country': 'Tunisia'}, {'id': 6726, 'year': 20212022, 'country': 'Tunisia'}, {'id': 8428, 'year': 20222023, 'country': 'Tunisia'}]</t>
   </si>
   <si>
-    <t>[{'id': 19, 'year': 20162017, 'country': 'Turkey'}, {'id': 20, 'year': 20152016, 'country': 'Turkey'}, {'id': 21, 'year': 20142015, 'country': 'Turkey'}, {'id': 175, 'year': 20172018, 'country': 'Turkey'}, {'id': 1614, 'year': 20182019, 'country': 'Turkey'}, {'id': 2648, 'year': 20192020, 'country': 'Turkey'}, {'id': 4840, 'year': 20202021, 'country': 'Turkey'}, {'id': 6125, 'year': 20212022, 'country': 'Turkey'}, {'id': 7768, 'year': 20222023, 'country': 'Turkey'}]</t>
+    <t>[{'id': 19, 'year': 20162017, 'country': 'Turkey'}, {'id': 20, 'year': 20152016, 'country': 'Turkey'}, {'id': 21, 'year': 20142015, 'country': 'Turkey'}, {'id': 175, 'year': 20172018, 'country': 'Turkey'}, {'id': 1614, 'year': 20182019, 'country': 'Turkey'}, {'id': 2648, 'year': 20192020, 'country': 'Turkey'}, {'id': 4840, 'year': 20202021, 'country': 'Turkey'}, {'id': 6125, 'year': 20212022, 'country': 'Turkey'}, {'id': 7768, 'year': 20222023, 'country': 'Turkey'}, {'id': 9913, 'year': 20232024, 'country': 'Turkey'}]</t>
   </si>
   <si>
     <t>[{'id': 1, 'year': 2016, 'country': 'USA'}, {'id': 16, 'year': 2015, 'country': 'USA'}, {'id': 23, 'year': 2014, 'country': 'USA'}, {'id': 24, 'year': 2013, 'country': 'USA'}, {'id': 163, 'year': 2017, 'country': 'USA'}, {'id': 1076, 'year': 2018, 'country': 'USA'}, {'id': 1846, 'year': 2019, 'country': 'USA'}, {'id': 4227, 'year': 2012, 'country': 'USA'}, {'id': 4235, 'year': 2011, 'country': 'USA'}, {'id': 4241, 'year': 2010, 'country': 'USA'}, {'id': 4473, 'year': 2020, 'country': 'USA'}, {'id': 5674, 'year': 2021, 'country': 'USA'}, {'id': 6969, 'year': 2022, 'country': 'USA'}, {'id': 8777, 'year': 2023, 'country': 'USA'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -463,7 +463,7 @@
     <t>[{'id': 96, 'year': 20162017, 'country': 'Australia'}, {'id': 97, 'year': 20152016, 'country': 'Australia'}, {'id': 98, 'year': 20142015, 'country': 'Australia'}, {'id': 99, 'year': 20132014, 'country': 'Australia'}, {'id': 192, 'year': 20172018, 'country': 'Australia'}, {'id': 1555, 'year': 20182019, 'country': 'Australia'}, {'id': 2640, 'year': 20192020, 'country': 'Australia'}, {'id': 4303, 'year': 20122013, 'country': 'Australia'}, {'id': 4310, 'year': 20112012, 'country': 'Australia'}, {'id': 4319, 'year': 20102011, 'country': 'Australia'}, {'id': 4326, 'year': 20092010, 'country': 'Australia'}, {'id': 5361, 'year': 20202021, 'country': 'Australia'}, {'id': 6639, 'year': 20212022, 'country': 'Australia'}, {'id': 8008, 'year': 20222023, 'country': 'Australia'}]</t>
   </si>
   <si>
-    <t>[{'id': 89, 'year': 20162017, 'country': 'Austria'}, {'id': 90, 'year': 20152016, 'country': 'Austria'}, {'id': 91, 'year': 20142015, 'country': 'Austria'}, {'id': 92, 'year': 20132014, 'country': 'Austria'}, {'id': 190, 'year': 20172018, 'country': 'Austria'}, {'id': 1556, 'year': 20182019, 'country': 'Austria'}, {'id': 4384, 'year': 20192020, 'country': 'Austria'}, {'id': 4861, 'year': 20202021, 'country': 'Austria'}, {'id': 6008, 'year': 20212022, 'country': 'Austria'}, {'id': 7890, 'year': 20222023, 'country': 'Austria'}]</t>
+    <t>[{'id': 89, 'year': 20162017, 'country': 'Austria'}, {'id': 90, 'year': 20152016, 'country': 'Austria'}, {'id': 91, 'year': 20142015, 'country': 'Austria'}, {'id': 92, 'year': 20132014, 'country': 'Austria'}, {'id': 190, 'year': 20172018, 'country': 'Austria'}, {'id': 1556, 'year': 20182019, 'country': 'Austria'}, {'id': 4384, 'year': 20192020, 'country': 'Austria'}, {'id': 4861, 'year': 20202021, 'country': 'Austria'}, {'id': 6008, 'year': 20212022, 'country': 'Austria'}, {'id': 7890, 'year': 20222023, 'country': 'Austria'}, {'id': 9954, 'year': 20232024, 'country': 'Austria'}]</t>
   </si>
   <si>
     <t>[{'id': 82, 'year': 20162017, 'country': 'Belgium'}, {'id': 112, 'year': 20152016, 'country': 'Belgium'}, {'id': 184, 'year': 20172018, 'country': 'Belgium'}, {'id': 1537, 'year': 20182019, 'country': 'Belgium'}, {'id': 2262, 'year': 20192020, 'country': 'Belgium'}, {'id': 4567, 'year': 20202021, 'country': 'Belgium'}, {'id': 6079, 'year': 20212022, 'country': 'Belgium'}, {'id': 7544, 'year': 20222023, 'country': 'Belgium'}, {'id': 9577, 'year': 20232024, 'country': 'Belgium'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -559,7 +559,7 @@
     <t>[{'id': 207, 'year': 20172018, 'country': 'Greece'}, {'id': 208, 'year': 20162017, 'country': 'Greece'}, {'id': 209, 'year': 20152016, 'country': 'Greece'}, {'id': 933, 'year': 20142015, 'country': 'Greece'}, {'id': 934, 'year': 20132014, 'country': 'Greece'}, {'id': 1752, 'year': 20182019, 'country': 'Greece'}, {'id': 2667, 'year': 20192020, 'country': 'Greece'}, {'id': 4957, 'year': 20202021, 'country': 'Greece'}, {'id': 6282, 'year': 20212022, 'country': 'Greece'}, {'id': 7954, 'year': 20222023, 'country': 'Greece'}, {'id': 9889, 'year': 20232024, 'country': 'Greece'}]</t>
   </si>
   <si>
-    <t>[{'id': 726, 'year': 20162017, 'country': 'Hungary'}, {'id': 727, 'year': 20152016, 'country': 'Hungary'}, {'id': 728, 'year': 20132014, 'country': 'Hungary'}, {'id': 730, 'year': 20172018, 'country': 'Hungary'}, {'id': 731, 'year': 20142015, 'country': 'Hungary'}, {'id': 1566, 'year': 20182019, 'country': 'Hungary'}, {'id': 2282, 'year': 20192020, 'country': 'Hungary'}, {'id': 4534, 'year': 20202021, 'country': 'Hungary'}, {'id': 5936, 'year': 20212022, 'country': 'Hungary'}, {'id': 7967, 'year': 20222023, 'country': 'Hungary'}]</t>
+    <t>[{'id': 726, 'year': 20162017, 'country': 'Hungary'}, {'id': 727, 'year': 20152016, 'country': 'Hungary'}, {'id': 728, 'year': 20132014, 'country': 'Hungary'}, {'id': 730, 'year': 20172018, 'country': 'Hungary'}, {'id': 731, 'year': 20142015, 'country': 'Hungary'}, {'id': 1566, 'year': 20182019, 'country': 'Hungary'}, {'id': 2282, 'year': 20192020, 'country': 'Hungary'}, {'id': 4534, 'year': 20202021, 'country': 'Hungary'}, {'id': 5936, 'year': 20212022, 'country': 'Hungary'}, {'id': 7967, 'year': 20222023, 'country': 'Hungary'}, {'id': 10007, 'year': 20232024, 'country': 'Hungary'}]</t>
   </si>
   <si>
     <t>[{'id': 68, 'year': 20162017, 'country': 'Italy'}, {'id': 69, 'year': 20152016, 'country': 'Italy'}, {'id': 70, 'year': 20142015, 'country': 'Italy'}, {'id': 71, 'year': 20132014, 'country': 'Italy'}, {'id': 182, 'year': 20172018, 'country': 'Italy'}, {'id': 1680, 'year': 20182019, 'country': 'Italy'}, {'id': 2588, 'year': 20192020, 'country': 'Italy'}, {'id': 3940, 'year': 20112012, 'country': 'Italy'}, {'id': 3941, 'year': 20082009, 'country': 'Italy'}, {'id': 3942, 'year': 20092010, 'country': 'Italy'}, {'id': 3945, 'year': 20122013, 'country': 'Italy'}, {'id': 4889, 'year': 20202021, 'country': 'Italy'}, {'id': 6198, 'year': 20212022, 'country': 'Italy'}, {'id': 7608, 'year': 20222023, 'country': 'Italy'}, {'id': 9697, 'year': 20232024, 'country': 'Italy'}]</t>
@@ -601,7 +601,7 @@
     <t>[{'id': 255, 'year': 20172018, 'country': 'Poland'}, {'id': 256, 'year': 20152016, 'country': 'Poland'}, {'id': 257, 'year': 20132014, 'country': 'Poland'}, {'id': 278, 'year': 20162017, 'country': 'Poland'}, {'id': 279, 'year': 20142015, 'country': 'Poland'}, {'id': 1589, 'year': 20182019, 'country': 'Poland'}, {'id': 2328, 'year': 20192020, 'country': 'Poland'}, {'id': 3972, 'year': 20092010, 'country': 'Poland'}, {'id': 3973, 'year': 20122013, 'country': 'Poland'}, {'id': 3974, 'year': 20102011, 'country': 'Poland'}, {'id': 3975, 'year': 20112012, 'country': 'Poland'}, {'id': 4760, 'year': 20202021, 'country': 'Poland'}, {'id': 5948, 'year': 20212022, 'country': 'Poland'}, {'id': 7428, 'year': 20222023, 'country': 'Poland'}, {'id': 9553, 'year': 20232024, 'country': 'Poland'}]</t>
   </si>
   <si>
-    <t>[{'id': 13, 'year': 20162017, 'country': 'Portugal'}, {'id': 14, 'year': 20152016, 'country': 'Portugal'}, {'id': 17, 'year': 20142015, 'country': 'Portugal'}, {'id': 18, 'year': 20132014, 'country': 'Portugal'}, {'id': 173, 'year': 20172018, 'country': 'Portugal'}, {'id': 1593, 'year': 20182019, 'country': 'Portugal'}, {'id': 2321, 'year': 20192020, 'country': 'Portugal'}, {'id': 4225, 'year': 20122013, 'country': 'Portugal'}, {'id': 4232, 'year': 20112012, 'country': 'Portugal'}, {'id': 4238, 'year': 20102011, 'country': 'Portugal'}, {'id': 4885, 'year': 20202021, 'country': 'Portugal'}, {'id': 6117, 'year': 20212022, 'country': 'Portugal'}, {'id': 7731, 'year': 20222023, 'country': 'Portugal'}]</t>
+    <t>[{'id': 13, 'year': 20162017, 'country': 'Portugal'}, {'id': 14, 'year': 20152016, 'country': 'Portugal'}, {'id': 17, 'year': 20142015, 'country': 'Portugal'}, {'id': 18, 'year': 20132014, 'country': 'Portugal'}, {'id': 173, 'year': 20172018, 'country': 'Portugal'}, {'id': 1593, 'year': 20182019, 'country': 'Portugal'}, {'id': 2321, 'year': 20192020, 'country': 'Portugal'}, {'id': 4225, 'year': 20122013, 'country': 'Portugal'}, {'id': 4232, 'year': 20112012, 'country': 'Portugal'}, {'id': 4238, 'year': 20102011, 'country': 'Portugal'}, {'id': 4885, 'year': 20202021, 'country': 'Portugal'}, {'id': 6117, 'year': 20212022, 'country': 'Portugal'}, {'id': 7731, 'year': 20222023, 'country': 'Portugal'}, {'id': 9984, 'year': 20232024, 'country': 'Portugal'}]</t>
   </si>
   <si>
     <t>[{'id': 174, 'year': 20172018, 'country': 'Portugal'}, {'id': 965, 'year': 20162017, 'country': 'Portugal'}, {'id': 966, 'year': 20152016, 'country': 'Portugal'}, {'id': 1594, 'year': 20182019, 'country': 'Portugal'}, {'id': 2320, 'year': 20192020, 'country': 'Portugal'}, {'id': 4284, 'year': 20142015, 'country': 'Portugal'}, {'id': 4291, 'year': 20122013, 'country': 'Portugal'}, {'id': 4309, 'year': 20102011, 'country': 'Portugal'}, {'id': 4322, 'year': 20092010, 'country': 'Portugal'}, {'id': 4886, 'year': 20202021, 'country': 'Portugal'}, {'id': 6116, 'year': 20212022, 'country': 'Portugal'}, {'id': 7732, 'year': 20222023, 'country': 'Portugal'}, {'id': 9704, 'year': 20232024, 'country': 'Portugal'}]</t>

--- a/ligas.xlsx
+++ b/ligas.xlsx
@@ -616,7 +616,7 @@
     <t>[{'id': 2, 'year': 20162017, 'country': 'Scotland'}, {'id': 164, 'year': 20172018, 'country': 'Scotland'}, {'id': 167, 'year': 20152016, 'country': 'Scotland'}, {'id': 168, 'year': 20142015, 'country': 'Scotland'}, {'id': 169, 'year': 20132014, 'country': 'Scotland'}, {'id': 223, 'year': 20122013, 'country': 'Scotland'}, {'id': 1600, 'year': 20182019, 'country': 'Scotland'}, {'id': 2361, 'year': 20192020, 'country': 'Scotland'}, {'id': 4478, 'year': 20202021, 'country': 'Scotland'}, {'id': 5992, 'year': 20212022, 'country': 'Scotland'}, {'id': 7494, 'year': 20222023, 'country': 'Scotland'}, {'id': 9636, 'year': 20232024, 'country': 'Scotland'}]</t>
   </si>
   <si>
-    <t>[{'id': 416, 'year': 20172018, 'country': 'Serbia'}, {'id': 417, 'year': 20162017, 'country': 'Serbia'}, {'id': 418, 'year': 20152016, 'country': 'Serbia'}, {'id': 419, 'year': 20142015, 'country': 'Serbia'}, {'id': 420, 'year': 20132014, 'country': 'Serbia'}, {'id': 1604, 'year': 20182019, 'country': 'Serbia'}, {'id': 2254, 'year': 20192020, 'country': 'Serbia'}, {'id': 4533, 'year': 20202021, 'country': 'Serbia'}, {'id': 6046, 'year': 20212022, 'country': 'Serbia'}, {'id': 7492, 'year': 20222023, 'country': 'Serbia'}]</t>
+    <t>[{'id': 416, 'year': 20172018, 'country': 'Serbia'}, {'id': 417, 'year': 20162017, 'country': 'Serbia'}, {'id': 418, 'year': 20152016, 'country': 'Serbia'}, {'id': 419, 'year': 20142015, 'country': 'Serbia'}, {'id': 420, 'year': 20132014, 'country': 'Serbia'}, {'id': 1604, 'year': 20182019, 'country': 'Serbia'}, {'id': 2254, 'year': 20192020, 'country': 'Serbia'}, {'id': 4533, 'year': 20202021, 'country': 'Serbia'}, {'id': 6046, 'year': 20212022, 'country': 'Serbia'}, {'id': 7492, 'year': 20222023, 'country': 'Serbia'}, {'id': 10070, 'year': 20232024, 'country': 'Serbia'}]</t>
   </si>
   <si>
     <t>[{'id': 439, 'year': 20152016, 'country': 'Slovakia'}, {'id': 440, 'year': 20142015, 'country': 'Slovakia'}, {'id': 441, 'year': 20132014, 'country': 'Slovakia'}, {'id': 447, 'year': 20172018, 'country': 'Slovakia'}, {'id': 448, 'year': 20162017, 'country': 'Slovakia'}, {'id': 1606, 'year': 20182019, 'country': 'Slovakia'}, {'id': 2256, 'year': 20192020, 'country': 'Slovakia'}, {'id': 4572, 'year': 20202021, 'country': 'Slovakia'}, {'id': 5944, 'year': 20212022, 'country': 'Slovakia'}, {'id': 7958, 'year': 20222023, 'country': 'Slovakia'}, {'id': 9671, 'year': 20232024, 'country': 'Slovakia'}]</t>
